--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work2022\年会抽奖\lottery\server\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\lottery\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C28E399-18E9-4A92-BD53-FC6B24FE9B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6DCC9B-E56A-4470-9038-85943B9FBFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="4">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,9 +301,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
@@ -653,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="F506" sqref="F506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -677,7 +674,7 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>742</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -688,7 +685,7 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>842</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -699,7 +696,7 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>438</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -710,7 +707,7 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>587</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -721,7 +718,7 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>271</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -732,7 +729,7 @@
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>204</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -743,7 +740,7 @@
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>466</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -754,7 +751,7 @@
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>525</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -765,7 +762,7 @@
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>622</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -776,7 +773,7 @@
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>348</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -787,7 +784,7 @@
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>734</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -798,7 +795,7 @@
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>171</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -809,7 +806,7 @@
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>478</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -820,7 +817,7 @@
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>302</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -831,7 +828,7 @@
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>572</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -842,7 +839,7 @@
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>186</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -853,7 +850,7 @@
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>451</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -864,7 +861,7 @@
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>989</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -875,7 +872,7 @@
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -886,7 +883,7 @@
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>244</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -897,7 +894,7 @@
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>415</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -908,7 +905,7 @@
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>613</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -919,7 +916,7 @@
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>765</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -930,7 +927,7 @@
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>992</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -941,7 +938,7 @@
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>792</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -952,7 +949,7 @@
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>653</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -963,7 +960,7 @@
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>983</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -974,7 +971,7 @@
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>856</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -985,7 +982,7 @@
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>228</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -996,7 +993,7 @@
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>359</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1007,7 +1004,7 @@
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>870</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1018,7 +1015,7 @@
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>758</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1029,7 +1026,7 @@
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>875</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1040,7 +1037,7 @@
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>748</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1051,7 +1048,7 @@
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>849</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1062,7 +1059,7 @@
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>953</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1073,7 +1070,7 @@
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>956</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1084,7 +1081,7 @@
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>295</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1095,7 +1092,7 @@
       <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>762</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1106,7 +1103,7 @@
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>975</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1117,7 +1114,7 @@
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1128,7 +1125,7 @@
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>974</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1139,7 +1136,7 @@
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>810</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1150,7 +1147,7 @@
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>312</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1161,7 +1158,7 @@
       <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>707</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -1172,7 +1169,7 @@
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>424</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1183,7 +1180,7 @@
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1194,7 +1191,7 @@
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>685</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -1205,7 +1202,7 @@
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>177</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1216,7 +1213,7 @@
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>895</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -1227,7 +1224,7 @@
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>449</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -1238,7 +1235,7 @@
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>704</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -1249,7 +1246,7 @@
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>730</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -1260,7 +1257,7 @@
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>843</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -1271,7 +1268,7 @@
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>550</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1282,7 +1279,7 @@
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
         <v>917</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -1293,7 +1290,7 @@
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>446</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -1304,7 +1301,7 @@
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>799</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -1315,7 +1312,7 @@
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>672</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -1326,7 +1323,7 @@
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -1337,7 +1334,7 @@
       <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>287</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -1348,7 +1345,7 @@
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>592</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -1359,7 +1356,7 @@
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>337</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -1370,7 +1367,7 @@
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>559</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -1381,7 +1378,7 @@
       <c r="A66" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>778</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -1392,7 +1389,7 @@
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>654</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -1403,7 +1400,7 @@
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>939</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -1414,7 +1411,7 @@
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>469</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -1425,7 +1422,7 @@
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>890</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -1436,7 +1433,7 @@
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>727</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -1447,7 +1444,7 @@
       <c r="A72" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>22</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -1458,7 +1455,7 @@
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>302</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -1469,7 +1466,7 @@
       <c r="A74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>436</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -1480,7 +1477,7 @@
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>750</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -1491,7 +1488,7 @@
       <c r="A76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>930</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -1502,7 +1499,7 @@
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>488</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -1513,7 +1510,7 @@
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="7">
         <v>293</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -1524,7 +1521,7 @@
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>668</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -1535,7 +1532,7 @@
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="7">
         <v>819</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -1546,7 +1543,7 @@
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>144</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -1557,7 +1554,7 @@
       <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="7">
         <v>883</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -1568,7 +1565,7 @@
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>533</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -1579,7 +1576,7 @@
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="7">
         <v>954</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -1590,7 +1587,7 @@
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="8">
         <v>715</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -1601,7 +1598,7 @@
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="6">
         <v>564</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -1612,7 +1609,7 @@
       <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="7">
         <v>844</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -1623,7 +1620,7 @@
       <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="7">
         <v>327</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -1634,7 +1631,7 @@
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="7">
         <v>276</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -1645,7 +1642,7 @@
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="7">
         <v>777</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -1656,7 +1653,7 @@
       <c r="A91" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="7">
         <v>645</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -1667,7 +1664,7 @@
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="7">
         <v>682</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -1678,7 +1675,7 @@
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="7">
         <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -1689,7 +1686,7 @@
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="7">
         <v>602</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -1700,7 +1697,7 @@
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="7">
         <v>476</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -1711,7 +1708,7 @@
       <c r="A96" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="7">
         <v>774</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -1722,7 +1719,7 @@
       <c r="A97" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="7">
         <v>774</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -1733,7 +1730,7 @@
       <c r="A98" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98" s="7">
         <v>584</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -1744,7 +1741,7 @@
       <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="7">
         <v>239</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -1755,7 +1752,7 @@
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="7">
         <v>784</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -1766,7 +1763,7 @@
       <c r="A101" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="7">
         <v>779</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -1777,7 +1774,7 @@
       <c r="A102" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="8">
+      <c r="B102" s="7">
         <v>137</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -1788,7 +1785,7 @@
       <c r="A103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103" s="7">
         <v>195</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -1799,7 +1796,7 @@
       <c r="A104" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="8">
+      <c r="B104" s="7">
         <v>752</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -1810,7 +1807,7 @@
       <c r="A105" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="8">
+      <c r="B105" s="7">
         <v>898</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -1821,7 +1818,7 @@
       <c r="A106" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="8">
+      <c r="B106" s="7">
         <v>845</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -1832,7 +1829,7 @@
       <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="8">
+      <c r="B107" s="7">
         <v>962</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -1843,7 +1840,7 @@
       <c r="A108" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="8">
+      <c r="B108" s="7">
         <v>781</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -1854,7 +1851,7 @@
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="8">
+      <c r="B109" s="7">
         <v>247</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -1865,7 +1862,7 @@
       <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="8">
+      <c r="B110" s="7">
         <v>955</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -1876,7 +1873,7 @@
       <c r="A111" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="8">
+      <c r="B111" s="7">
         <v>851</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -1887,7 +1884,7 @@
       <c r="A112" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="8">
+      <c r="B112" s="7">
         <v>850</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -1898,7 +1895,7 @@
       <c r="A113" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B113" s="8">
         <v>773</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -1909,7 +1906,7 @@
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="6">
         <v>52</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -1920,7 +1917,7 @@
       <c r="A115" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="8">
+      <c r="B115" s="7">
         <v>913</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -1931,7 +1928,7 @@
       <c r="A116" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="8">
+      <c r="B116" s="7">
         <v>923</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -1942,7 +1939,7 @@
       <c r="A117" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="8">
+      <c r="B117" s="7">
         <v>173</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -1953,7 +1950,7 @@
       <c r="A118" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="8">
+      <c r="B118" s="7">
         <v>52</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -1964,7 +1961,7 @@
       <c r="A119" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B119" s="8">
+      <c r="B119" s="7">
         <v>832</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -1975,7 +1972,7 @@
       <c r="A120" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B120" s="8">
+      <c r="B120" s="7">
         <v>504</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -1986,7 +1983,7 @@
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="8">
+      <c r="B121" s="7">
         <v>121</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -1997,7 +1994,7 @@
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="8">
+      <c r="B122" s="7">
         <v>786</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -2008,7 +2005,7 @@
       <c r="A123" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B123" s="7">
         <v>533</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -2019,7 +2016,7 @@
       <c r="A124" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="8">
+      <c r="B124" s="7">
         <v>773</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -2030,7 +2027,7 @@
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="8">
+      <c r="B125" s="7">
         <v>307</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -2041,7 +2038,7 @@
       <c r="A126" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="8">
+      <c r="B126" s="7">
         <v>470</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -2052,7 +2049,7 @@
       <c r="A127" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B127" s="8">
+      <c r="B127" s="7">
         <v>144</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -2063,7 +2060,7 @@
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B128" s="8">
+      <c r="B128" s="7">
         <v>116</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -2074,7 +2071,7 @@
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="8">
+      <c r="B129" s="7">
         <v>787</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -2085,7 +2082,7 @@
       <c r="A130" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="8">
+      <c r="B130" s="7">
         <v>864</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -2096,7 +2093,7 @@
       <c r="A131" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="8">
+      <c r="B131" s="7">
         <v>574</v>
       </c>
       <c r="C131" s="2" t="s">
@@ -2107,7 +2104,7 @@
       <c r="A132" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B132" s="8">
+      <c r="B132" s="7">
         <v>114</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -2118,7 +2115,7 @@
       <c r="A133" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B133" s="8">
+      <c r="B133" s="7">
         <v>405</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -2126,1853 +2123,4051 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="8">
+      <c r="A134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="7">
         <v>626</v>
       </c>
+      <c r="C134" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="8">
+      <c r="A135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="7">
         <v>229</v>
       </c>
+      <c r="C135" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="8">
+      <c r="A136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="7">
         <v>621</v>
       </c>
+      <c r="C136" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="8">
+      <c r="A137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="7">
         <v>33</v>
       </c>
+      <c r="C137" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="8">
+      <c r="A138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="7">
         <v>443</v>
       </c>
+      <c r="C138" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="8">
+      <c r="A139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="7">
         <v>299</v>
       </c>
+      <c r="C139" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="8">
+      <c r="A140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="7">
         <v>216</v>
       </c>
+      <c r="C140" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="141" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="3"/>
-      <c r="B141" s="9">
+      <c r="A141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="8">
         <v>102</v>
       </c>
+      <c r="C141" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="7">
+      <c r="A142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="6">
         <v>888</v>
       </c>
+      <c r="C142" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="8">
+      <c r="A143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="7">
         <v>656</v>
       </c>
+      <c r="C143" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="8">
+      <c r="A144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="7">
         <v>796</v>
       </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="8">
+      <c r="C144" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="7">
         <v>173</v>
       </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="8">
+      <c r="C145" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="7">
         <v>33</v>
       </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="8">
+      <c r="C146" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="7">
         <v>540</v>
       </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="8">
+      <c r="C147" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" s="7">
         <v>324</v>
       </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="8">
+      <c r="C148" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="7">
         <v>348</v>
       </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="8">
+      <c r="C149" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="7">
         <v>894</v>
       </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="8">
+      <c r="C150" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151" s="7">
         <v>793</v>
       </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="8">
+      <c r="C151" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="7">
         <v>548</v>
       </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="8">
+      <c r="C152" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="7">
         <v>264</v>
       </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="8">
+      <c r="C153" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" s="7">
         <v>362</v>
       </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="8">
+      <c r="C154" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="7">
         <v>837</v>
       </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="8">
+      <c r="C155" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" s="7">
         <v>110</v>
       </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="8">
+      <c r="C156" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="7">
         <v>148</v>
       </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="8">
+      <c r="C157" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" s="7">
         <v>974</v>
       </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="8">
+      <c r="C158" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" s="7">
         <v>443</v>
       </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="8">
+      <c r="C159" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" s="7">
         <v>777</v>
       </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="8">
+      <c r="C160" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" s="7">
         <v>214</v>
       </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="8">
+      <c r="C161" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" s="7">
         <v>217</v>
       </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="8">
+      <c r="C162" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="7">
         <v>800</v>
       </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="8">
+      <c r="C163" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" s="7">
         <v>966</v>
       </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="8">
+      <c r="C164" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" s="7">
         <v>477</v>
       </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="8">
+      <c r="C165" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" s="7">
         <v>192</v>
       </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="8">
+      <c r="C166" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167" s="7">
         <v>82</v>
       </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="8">
+      <c r="C167" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168" s="7">
         <v>39</v>
       </c>
-    </row>
-    <row r="169" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="9">
+      <c r="C168" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169" s="8">
         <v>803</v>
       </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="7">
+      <c r="C169" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" s="6">
         <v>372</v>
       </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="8">
+      <c r="C170" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" s="7">
         <v>474</v>
       </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="8">
+      <c r="C171" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B172" s="7">
         <v>332</v>
       </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="8">
+      <c r="C172" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" s="7">
         <v>517</v>
       </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="8">
+      <c r="C173" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174" s="7">
         <v>995</v>
       </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="8">
+      <c r="C174" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" s="7">
         <v>113</v>
       </c>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="8">
+      <c r="C175" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" s="7">
         <v>390</v>
       </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="8">
+      <c r="C176" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" s="7">
         <v>577</v>
       </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="8">
+      <c r="C177" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" s="7">
         <v>205</v>
       </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="8">
+      <c r="C178" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" s="7">
         <v>826</v>
       </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="8">
+      <c r="C179" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180" s="7">
         <v>176</v>
       </c>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="8">
+      <c r="C180" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181" s="7">
         <v>68</v>
       </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="8">
+      <c r="C181" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" s="7">
         <v>272</v>
       </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="8">
+      <c r="C182" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" s="7">
         <v>482</v>
       </c>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="8">
+      <c r="C183" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B184" s="7">
         <v>924</v>
       </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="8">
+      <c r="C184" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B185" s="7">
         <v>59</v>
       </c>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="8">
+      <c r="C185" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186" s="7">
         <v>220</v>
       </c>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="8">
+      <c r="C186" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B187" s="7">
         <v>132</v>
       </c>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="8">
+      <c r="C187" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" s="7">
         <v>364</v>
       </c>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="8">
+      <c r="C188" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B189" s="7">
         <v>108</v>
       </c>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="8">
+      <c r="C189" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B190" s="7">
         <v>109</v>
       </c>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="8">
+      <c r="C190" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B191" s="7">
         <v>567</v>
       </c>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="8">
+      <c r="C191" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192" s="7">
         <v>742</v>
       </c>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="8">
+      <c r="C192" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193" s="7">
         <v>363</v>
       </c>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="8">
+      <c r="C193" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194" s="7">
         <v>814</v>
       </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="8">
+      <c r="C194" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B195" s="7">
         <v>140</v>
       </c>
-    </row>
-    <row r="196" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="9">
+      <c r="C195" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B196" s="8">
         <v>990</v>
       </c>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="7">
+      <c r="C196" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B197" s="6">
         <v>233</v>
       </c>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="8">
+      <c r="C197" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B198" s="7">
         <v>560</v>
       </c>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="8">
+      <c r="C198" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B199" s="7">
         <v>148</v>
       </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="8">
+      <c r="C199" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B200" s="7">
         <v>120</v>
       </c>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="8">
+      <c r="C200" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B201" s="7">
         <v>786</v>
       </c>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="8">
+      <c r="C201" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B202" s="7">
         <v>191</v>
       </c>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="8">
+      <c r="C202" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" s="7">
         <v>866</v>
       </c>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="8">
+      <c r="C203" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B204" s="7">
         <v>675</v>
       </c>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="8">
+      <c r="C204" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B205" s="7">
         <v>154</v>
       </c>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="8">
+      <c r="C205" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B206" s="7">
         <v>730</v>
       </c>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="8">
+      <c r="C206" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B207" s="7">
         <v>909</v>
       </c>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" s="8">
+      <c r="C207" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B208" s="7">
         <v>117</v>
       </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="8">
+      <c r="C208" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B209" s="7">
         <v>398</v>
       </c>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="8">
+      <c r="C209" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" s="7">
         <v>114</v>
       </c>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="8">
+      <c r="C210" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B211" s="7">
         <v>473</v>
       </c>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="8">
+      <c r="C211" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B212" s="7">
         <v>275</v>
       </c>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="8">
+      <c r="C212" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B213" s="7">
         <v>756</v>
       </c>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="8">
+      <c r="C213" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B214" s="7">
         <v>164</v>
       </c>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="8">
+      <c r="C214" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B215" s="7">
         <v>308</v>
       </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="8">
+      <c r="C215" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B216" s="7">
         <v>577</v>
       </c>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="8">
+      <c r="C216" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B217" s="7">
         <v>527</v>
       </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="8">
+      <c r="C217" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B218" s="7">
         <v>319</v>
       </c>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="8">
+      <c r="C218" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B219" s="7">
         <v>579</v>
       </c>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="8">
+      <c r="C219" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B220" s="7">
         <v>840</v>
       </c>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="8">
+      <c r="C220" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B221" s="7">
         <v>540</v>
       </c>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="8">
+      <c r="C221" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B222" s="7">
         <v>97</v>
       </c>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="8">
+      <c r="C222" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B223" s="7">
         <v>709</v>
       </c>
-    </row>
-    <row r="224" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="9">
+      <c r="C223" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" s="8">
         <v>745</v>
       </c>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="7">
+      <c r="C224" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B225" s="6">
         <v>969</v>
       </c>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="8">
+      <c r="C225" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B226" s="7">
         <v>801</v>
       </c>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="8">
+      <c r="C226" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" s="7">
         <v>535</v>
       </c>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="8">
+      <c r="C227" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B228" s="7">
         <v>962</v>
       </c>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="8">
+      <c r="C228" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B229" s="7">
         <v>918</v>
       </c>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="8">
+      <c r="C229" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B230" s="7">
         <v>213</v>
       </c>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="8">
+      <c r="C230" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B231" s="7">
         <v>891</v>
       </c>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="8">
+      <c r="C231" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232" s="7">
         <v>344</v>
       </c>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" s="8">
+      <c r="C232" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B233" s="7">
         <v>786</v>
       </c>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" s="8">
+      <c r="C233" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B234" s="7">
         <v>286</v>
       </c>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" s="8">
+      <c r="C234" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B235" s="7">
         <v>660</v>
       </c>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" s="8">
+      <c r="C235" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236" s="7">
         <v>75</v>
       </c>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" s="8">
+      <c r="C236" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B237" s="7">
         <v>361</v>
       </c>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="8">
+      <c r="C237" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B238" s="7">
         <v>769</v>
       </c>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" s="8">
+      <c r="C238" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B239" s="7">
         <v>212</v>
       </c>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" s="8">
+      <c r="C239" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B240" s="7">
         <v>186</v>
       </c>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" s="8">
+      <c r="C240" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B241" s="7">
         <v>75</v>
       </c>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="8">
+      <c r="C241" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B242" s="7">
         <v>925</v>
       </c>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="8">
+      <c r="C242" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" s="7">
         <v>467</v>
       </c>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="8">
+      <c r="C243" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B244" s="7">
         <v>123</v>
       </c>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="8">
+      <c r="C244" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B245" s="7">
         <v>856</v>
       </c>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="8">
+      <c r="C245" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B246" s="7">
         <v>994</v>
       </c>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="8">
+      <c r="C246" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B247" s="7">
         <v>736</v>
       </c>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="8">
+      <c r="C247" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B248" s="7">
         <v>294</v>
       </c>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" s="8">
+      <c r="C248" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249" s="7">
         <v>115</v>
       </c>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" s="8">
+      <c r="C249" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B250" s="7">
         <v>385</v>
       </c>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" s="8">
+      <c r="C250" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B251" s="7">
         <v>303</v>
       </c>
-    </row>
-    <row r="252" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B252" s="9">
+      <c r="C251" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B252" s="8">
         <v>913</v>
       </c>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="7">
+      <c r="C252" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B253" s="6">
         <v>746</v>
       </c>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" s="8">
+      <c r="C253" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" s="7">
         <v>602</v>
       </c>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" s="8">
+      <c r="C254" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B255" s="7">
         <v>850</v>
       </c>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="8">
+      <c r="C255" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B256" s="7">
         <v>656</v>
       </c>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" s="8">
+      <c r="C256" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B257" s="7">
         <v>114</v>
       </c>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="8">
+      <c r="C257" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B258" s="7">
         <v>588</v>
       </c>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="8">
+      <c r="C258" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B259" s="7">
         <v>262</v>
       </c>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="8">
+      <c r="C259" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B260" s="7">
         <v>943</v>
       </c>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="8">
+      <c r="C260" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B261" s="7">
         <v>310</v>
       </c>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="8">
+      <c r="C261" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B262" s="7">
         <v>715</v>
       </c>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" s="8">
+      <c r="C262" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B263" s="7">
         <v>306</v>
       </c>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" s="8">
+      <c r="C263" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B264" s="7">
         <v>187</v>
       </c>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" s="8">
+      <c r="C264" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B265" s="7">
         <v>975</v>
       </c>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" s="8">
+      <c r="C265" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B266" s="7">
         <v>47</v>
       </c>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" s="8">
+      <c r="C266" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B267" s="7">
         <v>164</v>
       </c>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" s="8">
+      <c r="C267" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B268" s="7">
         <v>722</v>
       </c>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" s="8">
+      <c r="C268" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B269" s="7">
         <v>393</v>
       </c>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" s="8">
+      <c r="C269" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B270" s="7">
         <v>104</v>
       </c>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" s="8">
+      <c r="C270" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B271" s="7">
         <v>517</v>
       </c>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" s="8">
+      <c r="C271" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B272" s="7">
         <v>87</v>
       </c>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" s="8">
+      <c r="C272" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B273" s="7">
         <v>955</v>
       </c>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" s="8">
+      <c r="C273" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B274" s="7">
         <v>519</v>
       </c>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" s="8">
+      <c r="C274" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B275" s="7">
         <v>137</v>
       </c>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" s="8">
+      <c r="C275" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B276" s="7">
         <v>106</v>
       </c>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" s="8">
+      <c r="C276" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B277" s="7">
         <v>503</v>
       </c>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" s="8">
+      <c r="C277" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B278" s="7">
         <v>852</v>
       </c>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" s="8">
+      <c r="C278" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B279" s="7">
         <v>646</v>
       </c>
-    </row>
-    <row r="280" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="9">
+      <c r="C279" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B280" s="8">
         <v>144</v>
       </c>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" s="7">
+      <c r="C280" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B281" s="6">
         <v>761</v>
       </c>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" s="8">
+      <c r="C281" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B282" s="7">
         <v>84</v>
       </c>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" s="8">
+      <c r="C282" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" s="7">
         <v>450</v>
       </c>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" s="8">
+      <c r="C283" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B284" s="7">
         <v>396</v>
       </c>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" s="8">
+      <c r="C284" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B285" s="7">
         <v>244</v>
       </c>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" s="8">
+      <c r="C285" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B286" s="7">
         <v>765</v>
       </c>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" s="8">
+      <c r="C286" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B287" s="7">
         <v>565</v>
       </c>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" s="8">
+      <c r="C287" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B288" s="7">
         <v>58</v>
       </c>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289" s="8">
+      <c r="C288" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B289" s="7">
         <v>102</v>
       </c>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" s="8">
+      <c r="C289" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B290" s="7">
         <v>447</v>
       </c>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" s="8">
+      <c r="C290" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B291" s="7">
         <v>278</v>
       </c>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" s="8">
+      <c r="C291" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B292" s="7">
         <v>401</v>
       </c>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" s="8">
+      <c r="C292" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B293" s="7">
         <v>750</v>
       </c>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B294" s="8">
+      <c r="C293" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B294" s="7">
         <v>301</v>
       </c>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B295" s="8">
+      <c r="C294" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B295" s="7">
         <v>988</v>
       </c>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" s="8">
+      <c r="C295" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B296" s="7">
         <v>196</v>
       </c>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B297" s="8">
+      <c r="C296" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B297" s="7">
         <v>690</v>
       </c>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" s="8">
+      <c r="C297" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B298" s="7">
         <v>679</v>
       </c>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B299" s="8">
+      <c r="C298" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B299" s="7">
         <v>601</v>
       </c>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B300" s="8">
+      <c r="C299" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B300" s="7">
         <v>159</v>
       </c>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B301" s="8">
+      <c r="C300" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B301" s="7">
         <v>279</v>
       </c>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B302" s="8">
+      <c r="C301" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B302" s="7">
         <v>853</v>
       </c>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B303" s="8">
+      <c r="C302" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B303" s="7">
         <v>330</v>
       </c>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" s="8">
+      <c r="C303" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B304" s="7">
         <v>84</v>
       </c>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B305" s="8">
+      <c r="C304" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B305" s="7">
         <v>819</v>
       </c>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B306" s="8">
+      <c r="C305" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B306" s="7">
         <v>606</v>
       </c>
-    </row>
-    <row r="307" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B307" s="9">
+      <c r="C306" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B307" s="8">
         <v>462</v>
       </c>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B308" s="7">
+      <c r="C307" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B308" s="6">
         <v>394</v>
       </c>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B309" s="8">
+      <c r="C308" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B309" s="7">
         <v>923</v>
       </c>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B310" s="8">
+      <c r="C309" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B310" s="7">
         <v>487</v>
       </c>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" s="8">
+      <c r="C310" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B311" s="7">
         <v>223</v>
       </c>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B312" s="8">
+      <c r="C311" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B312" s="7">
         <v>844</v>
       </c>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B313" s="8">
+      <c r="C312" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B313" s="7">
         <v>946</v>
       </c>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B314" s="8">
+      <c r="C313" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B314" s="7">
         <v>769</v>
       </c>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B315" s="8">
+      <c r="C314" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B315" s="7">
         <v>157</v>
       </c>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" s="8">
+      <c r="C315" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B316" s="7">
         <v>462</v>
       </c>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B317" s="8">
+      <c r="C316" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B317" s="7">
         <v>801</v>
       </c>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B318" s="8">
+      <c r="C317" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B318" s="7">
         <v>877</v>
       </c>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B319" s="8">
+      <c r="C318" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B319" s="7">
         <v>181</v>
       </c>
-    </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B320" s="8">
+      <c r="C319" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B320" s="7">
         <v>797</v>
       </c>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B321" s="8">
+      <c r="C320" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B321" s="7">
         <v>161</v>
       </c>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B322" s="8">
+      <c r="C321" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B322" s="7">
         <v>213</v>
       </c>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B323" s="8">
+      <c r="C322" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B323" s="7">
         <v>361</v>
       </c>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B324" s="8">
+      <c r="C323" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B324" s="7">
         <v>763</v>
       </c>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B325" s="8">
+      <c r="C324" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B325" s="7">
         <v>310</v>
       </c>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B326" s="8">
+      <c r="C325" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B326" s="7">
         <v>281</v>
       </c>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B327" s="8">
+      <c r="C326" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B327" s="7">
         <v>850</v>
       </c>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B328" s="8">
+      <c r="C327" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B328" s="7">
         <v>760</v>
       </c>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B329" s="8">
+      <c r="C328" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B329" s="7">
         <v>377</v>
       </c>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B330" s="8">
+      <c r="C329" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B330" s="7">
         <v>644</v>
       </c>
-    </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B331" s="8">
+      <c r="C330" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B331" s="7">
         <v>765</v>
       </c>
-    </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B332" s="8">
+      <c r="C331" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B332" s="7">
         <v>433</v>
       </c>
-    </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B333" s="8">
+      <c r="C332" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B333" s="7">
         <v>628</v>
       </c>
-    </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B334" s="8">
+      <c r="C333" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B334" s="7">
         <v>243</v>
       </c>
-    </row>
-    <row r="335" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B335" s="9">
+      <c r="C334" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B335" s="8">
         <v>923</v>
       </c>
-    </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B336" s="7">
+      <c r="C335" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B336" s="6">
         <v>396</v>
       </c>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B337" s="8">
+      <c r="C336" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B337" s="7">
         <v>472</v>
       </c>
-    </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B338" s="8">
+      <c r="C337" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B338" s="7">
         <v>964</v>
       </c>
-    </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B339" s="8">
+      <c r="C338" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B339" s="7">
         <v>394</v>
       </c>
-    </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B340" s="8">
+      <c r="C339" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B340" s="7">
         <v>967</v>
       </c>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B341" s="8">
+      <c r="C340" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B341" s="7">
         <v>302</v>
       </c>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B342" s="8">
+      <c r="C341" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B342" s="7">
         <v>904</v>
       </c>
-    </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B343" s="8">
+      <c r="C342" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B343" s="7">
         <v>92</v>
       </c>
-    </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B344" s="8">
+      <c r="C343" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B344" s="7">
         <v>164</v>
       </c>
-    </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B345" s="8">
+      <c r="C344" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B345" s="7">
         <v>105</v>
       </c>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B346" s="8">
+      <c r="C345" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B346" s="7">
         <v>512</v>
       </c>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" s="8">
+      <c r="C346" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B347" s="7">
         <v>530</v>
       </c>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B348" s="8">
+      <c r="C347" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B348" s="7">
         <v>615</v>
       </c>
-    </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B349" s="8">
+      <c r="C348" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B349" s="7">
         <v>340</v>
       </c>
-    </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B350" s="8">
+      <c r="C349" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B350" s="7">
         <v>509</v>
       </c>
-    </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B351" s="8">
+      <c r="C350" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B351" s="7">
         <v>828</v>
       </c>
-    </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B352" s="8">
+      <c r="C351" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B352" s="7">
         <v>692</v>
       </c>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" s="8">
+      <c r="C352" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B353" s="7">
         <v>391</v>
       </c>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B354" s="8">
+      <c r="C353" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B354" s="7">
         <v>643</v>
       </c>
-    </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B355" s="8">
+      <c r="C354" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B355" s="7">
         <v>183</v>
       </c>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B356" s="8">
+      <c r="C355" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B356" s="7">
         <v>370</v>
       </c>
-    </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B357" s="8">
+      <c r="C356" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B357" s="7">
         <v>719</v>
       </c>
-    </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B358" s="8">
+      <c r="C357" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B358" s="7">
         <v>421</v>
       </c>
-    </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B359" s="8">
+      <c r="C358" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B359" s="7">
         <v>895</v>
       </c>
-    </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B360" s="8">
+      <c r="C359" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B360" s="7">
         <v>583</v>
       </c>
-    </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B361" s="8">
+      <c r="C360" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B361" s="7">
         <v>251</v>
       </c>
-    </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B362" s="8">
+      <c r="C361" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B362" s="7">
         <v>593</v>
       </c>
-    </row>
-    <row r="363" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B363" s="9">
+      <c r="C362" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B363" s="8">
         <v>486</v>
       </c>
-    </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B364" s="7">
+      <c r="C363" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B364" s="6">
         <v>333</v>
       </c>
-    </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B365" s="8">
+      <c r="C364" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B365" s="7">
         <v>626</v>
       </c>
-    </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B366" s="8">
+      <c r="C365" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B366" s="7">
         <v>204</v>
       </c>
-    </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B367" s="8">
+      <c r="C366" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B367" s="7">
         <v>903</v>
       </c>
-    </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B368" s="8">
+      <c r="C367" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B368" s="7">
         <v>849</v>
       </c>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B369" s="8">
+      <c r="C368" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B369" s="7">
         <v>479</v>
       </c>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B370" s="8">
+      <c r="C369" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B370" s="7">
         <v>429</v>
       </c>
-    </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B371" s="8">
+      <c r="C370" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B371" s="7">
         <v>140</v>
       </c>
-    </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B372" s="8">
+      <c r="C371" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B372" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B373" s="8">
+      <c r="C372" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B373" s="7">
         <v>517</v>
       </c>
-    </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B374" s="8">
+      <c r="C373" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B374" s="7">
         <v>424</v>
       </c>
-    </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B375" s="8">
+      <c r="C374" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B375" s="7">
         <v>772</v>
       </c>
-    </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B376" s="8">
+      <c r="C375" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B376" s="7">
         <v>277</v>
       </c>
-    </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B377" s="8">
+      <c r="C376" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B377" s="7">
         <v>85</v>
       </c>
-    </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B378" s="8">
+      <c r="C377" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B378" s="7">
         <v>336</v>
       </c>
-    </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B379" s="8">
+      <c r="C378" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B379" s="7">
         <v>413</v>
       </c>
-    </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B380" s="8">
+      <c r="C379" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B380" s="7">
         <v>396</v>
       </c>
-    </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B381" s="8">
+      <c r="C380" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B381" s="7">
         <v>56</v>
       </c>
-    </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B382" s="8">
+      <c r="C381" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B382" s="7">
         <v>909</v>
       </c>
-    </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B383" s="8">
+      <c r="C382" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B383" s="7">
         <v>167</v>
       </c>
-    </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B384" s="8">
+      <c r="C383" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B384" s="7">
         <v>337</v>
       </c>
-    </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B385" s="8">
+      <c r="C384" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B385" s="7">
         <v>251</v>
       </c>
-    </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B386" s="8">
+      <c r="C385" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B386" s="7">
         <v>367</v>
       </c>
-    </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B387" s="8">
+      <c r="C386" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B387" s="7">
         <v>761</v>
       </c>
-    </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B388" s="8">
+      <c r="C387" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B388" s="7">
         <v>747</v>
       </c>
-    </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B389" s="8">
+      <c r="C388" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B389" s="7">
         <v>383</v>
       </c>
-    </row>
-    <row r="390" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B390" s="9">
+      <c r="C389" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B390" s="8">
         <v>49</v>
       </c>
-    </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B391" s="7">
+      <c r="C390" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B391" s="6">
         <v>487</v>
       </c>
-    </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B392" s="8">
+      <c r="C391" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B392" s="7">
         <v>289</v>
       </c>
-    </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B393" s="8">
+      <c r="C392" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B393" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B394" s="8">
+      <c r="C393" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B394" s="7">
         <v>839</v>
       </c>
-    </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B395" s="8">
+      <c r="C394" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B395" s="7">
         <v>830</v>
       </c>
-    </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B396" s="8">
+      <c r="C395" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B396" s="7">
         <v>738</v>
       </c>
-    </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B397" s="8">
+      <c r="C396" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B397" s="7">
         <v>890</v>
       </c>
-    </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B398" s="8">
+      <c r="C397" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B398" s="7">
         <v>86</v>
       </c>
-    </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B399" s="8">
+      <c r="C398" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B399" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B400" s="8">
+      <c r="C399" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B400" s="7">
         <v>538</v>
       </c>
-    </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B401" s="8">
+      <c r="C400" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B401" s="7">
         <v>972</v>
       </c>
-    </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B402" s="8">
+      <c r="C401" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B402" s="7">
         <v>882</v>
       </c>
-    </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B403" s="8">
+      <c r="C402" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B403" s="7">
         <v>523</v>
       </c>
-    </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B404" s="8">
+      <c r="C403" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B404" s="7">
         <v>121</v>
       </c>
-    </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B405" s="8">
+      <c r="C404" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B405" s="7">
         <v>911</v>
       </c>
-    </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B406" s="8">
+      <c r="C405" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B406" s="7">
         <v>55</v>
       </c>
-    </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B407" s="8">
+      <c r="C406" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B407" s="7">
         <v>691</v>
       </c>
-    </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B408" s="8">
+      <c r="C407" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B408" s="7">
         <v>837</v>
       </c>
-    </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B409" s="8">
+      <c r="C408" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B409" s="7">
         <v>506</v>
       </c>
-    </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B410" s="8">
+      <c r="C409" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B410" s="7">
         <v>348</v>
       </c>
-    </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B411" s="8">
+      <c r="C410" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B411" s="7">
         <v>770</v>
       </c>
-    </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B412" s="8">
+      <c r="C411" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B412" s="7">
         <v>204</v>
       </c>
-    </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B413" s="8">
+      <c r="C412" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B413" s="7">
         <v>917</v>
       </c>
-    </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B414" s="8">
+      <c r="C413" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B414" s="7">
         <v>58</v>
       </c>
-    </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B415" s="8">
+      <c r="C414" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B415" s="7">
         <v>735</v>
       </c>
-    </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B416" s="8">
+      <c r="C415" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B416" s="7">
         <v>503</v>
       </c>
-    </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B417" s="8">
+      <c r="C416" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B417" s="7">
         <v>969</v>
       </c>
-    </row>
-    <row r="418" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B418" s="9">
+      <c r="C417" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B418" s="8">
         <v>320</v>
       </c>
-    </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B419" s="7">
+      <c r="C418" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B419" s="6">
         <v>340</v>
       </c>
-    </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B420" s="8">
+      <c r="C419" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B420" s="7">
         <v>292</v>
       </c>
-    </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B421" s="8">
+      <c r="C420" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B421" s="7">
         <v>655</v>
       </c>
-    </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B422" s="8">
+      <c r="C421" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B422" s="7">
         <v>772</v>
       </c>
-    </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B423" s="8">
+      <c r="C422" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B423" s="7">
         <v>388</v>
       </c>
-    </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B424" s="8">
+      <c r="C423" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B424" s="7">
         <v>634</v>
       </c>
-    </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B425" s="8">
+      <c r="C424" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B425" s="7">
         <v>670</v>
       </c>
-    </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B426" s="8">
+      <c r="C425" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B426" s="7">
         <v>417</v>
       </c>
-    </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B427" s="8">
+      <c r="C426" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B427" s="7">
         <v>462</v>
       </c>
-    </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B428" s="8">
+      <c r="C427" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B428" s="7">
         <v>937</v>
       </c>
-    </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B429" s="8">
+      <c r="C428" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B429" s="7">
         <v>178</v>
       </c>
-    </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B430" s="8">
+      <c r="C429" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B430" s="7">
         <v>319</v>
       </c>
-    </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B431" s="8">
+      <c r="C430" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B431" s="7">
         <v>144</v>
       </c>
-    </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B432" s="8">
+      <c r="C431" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B432" s="7">
         <v>965</v>
       </c>
-    </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B433" s="8">
+      <c r="C432" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B433" s="7">
         <v>445</v>
       </c>
-    </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B434" s="8">
+      <c r="C433" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B434" s="7">
         <v>505</v>
       </c>
-    </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B435" s="8">
+      <c r="C434" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B435" s="7">
         <v>778</v>
       </c>
-    </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B436" s="8">
+      <c r="C435" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B436" s="7">
         <v>917</v>
       </c>
-    </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B437" s="8">
+      <c r="C436" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B437" s="7">
         <v>225</v>
       </c>
-    </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B438" s="8">
+      <c r="C437" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B438" s="7">
         <v>898</v>
       </c>
-    </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B439" s="8">
+      <c r="C438" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B439" s="7">
         <v>696</v>
       </c>
-    </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B440" s="8">
+      <c r="C439" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B440" s="7">
         <v>993</v>
       </c>
-    </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B441" s="8">
+      <c r="C440" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B441" s="7">
         <v>406</v>
       </c>
-    </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B442" s="8">
+      <c r="C441" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B442" s="7">
         <v>828</v>
       </c>
-    </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B443" s="8">
+      <c r="C442" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B443" s="7">
         <v>520</v>
       </c>
-    </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B444" s="8">
+      <c r="C443" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B444" s="7">
         <v>426</v>
       </c>
-    </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B445" s="8">
+      <c r="C444" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B445" s="7">
         <v>349</v>
       </c>
-    </row>
-    <row r="446" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B446" s="9">
+      <c r="C445" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B446" s="8">
         <v>293</v>
       </c>
-    </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B447" s="7">
+      <c r="C446" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B447" s="6">
         <v>952</v>
       </c>
-    </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B448" s="8">
+      <c r="C447" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B448" s="7">
         <v>493</v>
       </c>
-    </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B449" s="8">
+      <c r="C448" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B449" s="7">
         <v>314</v>
       </c>
-    </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B450" s="8">
+      <c r="C449" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B450" s="7">
         <v>829</v>
       </c>
-    </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B451" s="8">
+      <c r="C450" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B451" s="7">
         <v>668</v>
       </c>
-    </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B452" s="8">
+      <c r="C451" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B452" s="7">
         <v>239</v>
       </c>
-    </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B453" s="8">
+      <c r="C452" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B453" s="7">
         <v>218</v>
       </c>
-    </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B454" s="8">
+      <c r="C453" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B454" s="7">
         <v>990</v>
       </c>
-    </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B455" s="8">
+      <c r="C454" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B455" s="7">
         <v>970</v>
       </c>
-    </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B456" s="8">
+      <c r="C455" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B456" s="7">
         <v>383</v>
       </c>
-    </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B457" s="8">
+      <c r="C456" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B457" s="7">
         <v>165</v>
       </c>
-    </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B458" s="8">
+      <c r="C457" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B458" s="7">
         <v>719</v>
       </c>
-    </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B459" s="8">
+      <c r="C458" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B459" s="7">
         <v>464</v>
       </c>
-    </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B460" s="8">
+      <c r="C459" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B460" s="7">
         <v>470</v>
       </c>
-    </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B461" s="8">
+      <c r="C460" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B461" s="7">
         <v>595</v>
       </c>
-    </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B462" s="8">
+      <c r="C461" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B462" s="7">
         <v>195</v>
       </c>
-    </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B463" s="8">
+      <c r="C462" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B463" s="7">
         <v>786</v>
       </c>
-    </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B464" s="8">
+      <c r="C463" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B464" s="7">
         <v>878</v>
       </c>
-    </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B465" s="8">
+      <c r="C464" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B465" s="7">
         <v>833</v>
       </c>
-    </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B466" s="8">
+      <c r="C465" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B466" s="7">
         <v>937</v>
       </c>
-    </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B467" s="8">
+      <c r="C466" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B467" s="7">
         <v>676</v>
       </c>
-    </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B468" s="8">
+      <c r="C467" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B468" s="7">
         <v>838</v>
       </c>
-    </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B469" s="8">
+      <c r="C468" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B469" s="7">
         <v>126</v>
       </c>
-    </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B470" s="8">
+      <c r="C469" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B470" s="7">
         <v>862</v>
       </c>
-    </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B471" s="8">
+      <c r="C470" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B471" s="7">
         <v>776</v>
       </c>
-    </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B472" s="8">
+      <c r="C471" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B472" s="7">
         <v>136</v>
       </c>
-    </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B473" s="8">
+      <c r="C472" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B473" s="7">
         <v>61</v>
       </c>
-    </row>
-    <row r="474" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B474" s="9">
+      <c r="C473" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B474" s="8">
         <v>288</v>
       </c>
-    </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B475" s="10">
+      <c r="C474" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B475" s="9">
         <v>56</v>
       </c>
-    </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B476" s="11">
+      <c r="C475" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B476" s="10">
         <v>675</v>
       </c>
-    </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B477" s="11">
+      <c r="C476" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B477" s="10">
         <v>616</v>
       </c>
-    </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B478" s="11">
+      <c r="C477" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B478" s="10">
         <v>85</v>
       </c>
-    </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B479" s="11">
+      <c r="C478" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B479" s="10">
         <v>967</v>
       </c>
-    </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B480" s="11">
+      <c r="C479" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B480" s="10">
         <v>207</v>
       </c>
-    </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B481" s="11">
+      <c r="C480" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B481" s="10">
         <v>284</v>
       </c>
-    </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B482" s="11">
+      <c r="C481" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B482" s="10">
         <v>472</v>
       </c>
-    </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B483" s="11">
+      <c r="C482" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B483" s="10">
         <v>276</v>
       </c>
-    </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B484" s="11">
+      <c r="C483" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B484" s="10">
         <v>675</v>
       </c>
-    </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B485" s="11">
+      <c r="C484" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B485" s="10">
         <v>87</v>
       </c>
-    </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B486" s="11">
+      <c r="C485" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B486" s="10">
         <v>349</v>
       </c>
-    </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B487" s="11">
+      <c r="C486" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B487" s="10">
         <v>814</v>
       </c>
-    </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B488" s="11">
+      <c r="C487" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B488" s="10">
         <v>371</v>
       </c>
-    </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B489" s="11">
+      <c r="C488" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B489" s="10">
         <v>285</v>
       </c>
-    </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B490" s="11">
+      <c r="C489" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B490" s="10">
         <v>376</v>
       </c>
-    </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B491" s="11">
+      <c r="C490" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B491" s="10">
         <v>744</v>
       </c>
-    </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B492" s="11">
+      <c r="C491" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B492" s="10">
         <v>769</v>
       </c>
-    </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B493" s="11">
+      <c r="C492" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B493" s="10">
         <v>75</v>
       </c>
-    </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B494" s="11">
+      <c r="C493" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B494" s="10">
         <v>686</v>
       </c>
-    </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B495" s="11">
+      <c r="C494" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B495" s="10">
         <v>46</v>
       </c>
-    </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B496" s="11">
+      <c r="C495" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B496" s="10">
         <v>161</v>
       </c>
-    </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B497" s="11">
+      <c r="C496" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B497" s="10">
         <v>619</v>
       </c>
-    </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B498" s="11">
+      <c r="C497" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B498" s="10">
         <v>919</v>
       </c>
-    </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B499" s="11">
+      <c r="C498" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B499" s="10">
         <v>531</v>
       </c>
-    </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B500" s="11">
+      <c r="C499" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B500" s="10">
         <v>22</v>
       </c>
-    </row>
-    <row r="501" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B501" s="12">
+      <c r="C500" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B501" s="11">
         <v>580</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\lottery\server\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lrzsz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6DCC9B-E56A-4470-9038-85943B9FBFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD0A0AF-CB17-4751-9A14-AF811B9C4056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-2948" windowWidth="28995" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$387</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="4">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -171,21 +174,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -205,21 +193,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -260,21 +233,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -293,7 +251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,28 +264,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,7 +589,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -650,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="F506" sqref="F506"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="B387" sqref="B387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="7">
-        <v>302</v>
+        <v>436</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>3</v>
@@ -1467,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="7">
-        <v>436</v>
+        <v>750</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
@@ -1478,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="7">
-        <v>750</v>
+        <v>930</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>3</v>
@@ -1489,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="7">
-        <v>930</v>
+        <v>488</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>3</v>
@@ -1500,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="7">
-        <v>488</v>
+        <v>293</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>3</v>
@@ -1511,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="7">
-        <v>293</v>
+        <v>668</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>3</v>
@@ -1522,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="7">
-        <v>668</v>
+        <v>819</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>3</v>
@@ -1533,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="7">
-        <v>819</v>
+        <v>144</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
@@ -1544,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="7">
-        <v>144</v>
+        <v>883</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>3</v>
@@ -1555,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="7">
-        <v>883</v>
+        <v>533</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -1566,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="7">
-        <v>533</v>
+        <v>954</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>3</v>
@@ -1577,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="7">
-        <v>954</v>
+        <v>715</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>3</v>
@@ -1588,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="8">
-        <v>715</v>
+        <v>564</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>3</v>
@@ -1599,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="6">
-        <v>564</v>
+        <v>844</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>3</v>
@@ -1610,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="7">
-        <v>844</v>
+        <v>327</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>3</v>
@@ -1621,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="7">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>3</v>
@@ -1632,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="7">
-        <v>276</v>
+        <v>777</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>3</v>
@@ -1643,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="7">
-        <v>777</v>
+        <v>645</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>3</v>
@@ -1654,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="7">
-        <v>645</v>
+        <v>682</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>3</v>
@@ -1665,7 +1614,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="7">
-        <v>682</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>3</v>
@@ -1676,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="7">
-        <v>85</v>
+        <v>602</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>3</v>
@@ -1687,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="7">
-        <v>602</v>
+        <v>476</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
@@ -1698,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="7">
-        <v>476</v>
+        <v>774</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>3</v>
@@ -1709,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="7">
-        <v>774</v>
+        <v>584</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>3</v>
@@ -1720,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="7">
-        <v>774</v>
+        <v>239</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>3</v>
@@ -1731,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="7">
-        <v>584</v>
+        <v>784</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>3</v>
@@ -1742,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="7">
-        <v>239</v>
+        <v>779</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>3</v>
@@ -1753,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="7">
-        <v>784</v>
+        <v>137</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>3</v>
@@ -1764,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="7">
-        <v>779</v>
+        <v>195</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>3</v>
@@ -1775,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="7">
-        <v>137</v>
+        <v>752</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>3</v>
@@ -1786,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="7">
-        <v>195</v>
+        <v>898</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>3</v>
@@ -1797,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="7">
-        <v>752</v>
+        <v>845</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>3</v>
@@ -1808,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="7">
-        <v>898</v>
+        <v>962</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>3</v>
@@ -1819,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="7">
-        <v>845</v>
+        <v>781</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>3</v>
@@ -1830,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="7">
-        <v>962</v>
+        <v>247</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>3</v>
@@ -1841,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="7">
-        <v>781</v>
+        <v>955</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>3</v>
@@ -1852,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="7">
-        <v>247</v>
+        <v>851</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>3</v>
@@ -1863,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="7">
-        <v>955</v>
+        <v>850</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>3</v>
@@ -1874,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="7">
-        <v>851</v>
+        <v>773</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>3</v>
@@ -1885,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="7">
-        <v>850</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>3</v>
@@ -1896,7 +1845,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="8">
-        <v>773</v>
+        <v>913</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>3</v>
@@ -1907,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="6">
-        <v>52</v>
+        <v>923</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>3</v>
@@ -1918,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="7">
-        <v>913</v>
+        <v>173</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>3</v>
@@ -1929,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="7">
-        <v>923</v>
+        <v>832</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>3</v>
@@ -1940,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="7">
-        <v>173</v>
+        <v>504</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>3</v>
@@ -1951,7 +1900,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="7">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>3</v>
@@ -1962,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="7">
-        <v>832</v>
+        <v>786</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>3</v>
@@ -1973,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="B120" s="7">
-        <v>504</v>
+        <v>307</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>3</v>
@@ -1984,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="7">
-        <v>121</v>
+        <v>470</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>3</v>
@@ -1995,7 +1944,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="7">
-        <v>786</v>
+        <v>116</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>3</v>
@@ -2006,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="7">
-        <v>533</v>
+        <v>787</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>3</v>
@@ -2017,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="7">
-        <v>773</v>
+        <v>864</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>3</v>
@@ -2028,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="7">
-        <v>307</v>
+        <v>574</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>3</v>
@@ -2039,7 +1988,7 @@
         <v>3</v>
       </c>
       <c r="B126" s="7">
-        <v>470</v>
+        <v>114</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>3</v>
@@ -2050,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="7">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>3</v>
@@ -2061,7 +2010,7 @@
         <v>3</v>
       </c>
       <c r="B128" s="7">
-        <v>116</v>
+        <v>626</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>3</v>
@@ -2072,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="7">
-        <v>787</v>
+        <v>229</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>3</v>
@@ -2083,7 +2032,7 @@
         <v>3</v>
       </c>
       <c r="B130" s="7">
-        <v>864</v>
+        <v>621</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>3</v>
@@ -2094,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="B131" s="7">
-        <v>574</v>
+        <v>33</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>3</v>
@@ -2105,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B132" s="7">
-        <v>114</v>
+        <v>443</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>3</v>
@@ -2116,7 +2065,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="7">
-        <v>405</v>
+        <v>299</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>3</v>
@@ -2127,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="B134" s="7">
-        <v>626</v>
+        <v>216</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>3</v>
@@ -2138,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="7">
-        <v>229</v>
+        <v>102</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>3</v>
@@ -2149,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="B136" s="7">
-        <v>621</v>
+        <v>888</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>3</v>
@@ -2160,7 +2109,7 @@
         <v>3</v>
       </c>
       <c r="B137" s="7">
-        <v>33</v>
+        <v>656</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>3</v>
@@ -2171,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="B138" s="7">
-        <v>443</v>
+        <v>796</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>3</v>
@@ -2182,7 +2131,7 @@
         <v>3</v>
       </c>
       <c r="B139" s="7">
-        <v>299</v>
+        <v>540</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>3</v>
@@ -2193,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="B140" s="7">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>3</v>
@@ -2204,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="B141" s="8">
-        <v>102</v>
+        <v>894</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>3</v>
@@ -2215,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="B142" s="6">
-        <v>888</v>
+        <v>793</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>3</v>
@@ -2226,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="B143" s="7">
-        <v>656</v>
+        <v>548</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>3</v>
@@ -2237,7 +2186,7 @@
         <v>3</v>
       </c>
       <c r="B144" s="7">
-        <v>796</v>
+        <v>264</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>3</v>
@@ -2248,7 +2197,7 @@
         <v>3</v>
       </c>
       <c r="B145" s="7">
-        <v>173</v>
+        <v>362</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>3</v>
@@ -2259,7 +2208,7 @@
         <v>3</v>
       </c>
       <c r="B146" s="7">
-        <v>33</v>
+        <v>837</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>3</v>
@@ -2270,7 +2219,7 @@
         <v>3</v>
       </c>
       <c r="B147" s="7">
-        <v>540</v>
+        <v>110</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>3</v>
@@ -2281,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="B148" s="7">
-        <v>324</v>
+        <v>148</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>3</v>
@@ -2292,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="B149" s="7">
-        <v>348</v>
+        <v>214</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>3</v>
@@ -2303,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="B150" s="7">
-        <v>894</v>
+        <v>217</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>3</v>
@@ -2314,7 +2263,7 @@
         <v>3</v>
       </c>
       <c r="B151" s="7">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>3</v>
@@ -2325,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="B152" s="7">
-        <v>548</v>
+        <v>966</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>3</v>
@@ -2336,7 +2285,7 @@
         <v>3</v>
       </c>
       <c r="B153" s="7">
-        <v>264</v>
+        <v>477</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>3</v>
@@ -2347,7 +2296,7 @@
         <v>3</v>
       </c>
       <c r="B154" s="7">
-        <v>362</v>
+        <v>192</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>3</v>
@@ -2358,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="B155" s="7">
-        <v>837</v>
+        <v>82</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>3</v>
@@ -2369,7 +2318,7 @@
         <v>3</v>
       </c>
       <c r="B156" s="7">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>3</v>
@@ -2380,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="B157" s="7">
-        <v>148</v>
+        <v>803</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>3</v>
@@ -2391,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="B158" s="7">
-        <v>974</v>
+        <v>372</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>3</v>
@@ -2402,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="B159" s="7">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>3</v>
@@ -2413,7 +2362,7 @@
         <v>3</v>
       </c>
       <c r="B160" s="7">
-        <v>777</v>
+        <v>332</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>3</v>
@@ -2424,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="B161" s="7">
-        <v>214</v>
+        <v>517</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>3</v>
@@ -2435,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="B162" s="7">
-        <v>217</v>
+        <v>995</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>3</v>
@@ -2446,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="7">
-        <v>800</v>
+        <v>113</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>3</v>
@@ -2457,7 +2406,7 @@
         <v>3</v>
       </c>
       <c r="B164" s="7">
-        <v>966</v>
+        <v>390</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>3</v>
@@ -2468,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="B165" s="7">
-        <v>477</v>
+        <v>577</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>3</v>
@@ -2479,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="B166" s="7">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>3</v>
@@ -2490,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="7">
-        <v>82</v>
+        <v>826</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>3</v>
@@ -2501,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="B168" s="7">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>3</v>
@@ -2512,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="B169" s="8">
-        <v>803</v>
+        <v>68</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>3</v>
@@ -2523,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="B170" s="6">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>3</v>
@@ -2534,7 +2483,7 @@
         <v>3</v>
       </c>
       <c r="B171" s="7">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>3</v>
@@ -2545,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="B172" s="7">
-        <v>332</v>
+        <v>924</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>3</v>
@@ -2556,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="B173" s="7">
-        <v>517</v>
+        <v>59</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>3</v>
@@ -2567,7 +2516,7 @@
         <v>3</v>
       </c>
       <c r="B174" s="7">
-        <v>995</v>
+        <v>220</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>3</v>
@@ -2578,7 +2527,7 @@
         <v>3</v>
       </c>
       <c r="B175" s="7">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>3</v>
@@ -2589,7 +2538,7 @@
         <v>3</v>
       </c>
       <c r="B176" s="7">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>3</v>
@@ -2600,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="B177" s="7">
-        <v>577</v>
+        <v>108</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>3</v>
@@ -2611,7 +2560,7 @@
         <v>3</v>
       </c>
       <c r="B178" s="7">
-        <v>205</v>
+        <v>567</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>3</v>
@@ -2622,7 +2571,7 @@
         <v>3</v>
       </c>
       <c r="B179" s="7">
-        <v>826</v>
+        <v>363</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>3</v>
@@ -2633,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="B180" s="7">
-        <v>176</v>
+        <v>814</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>3</v>
@@ -2644,7 +2593,7 @@
         <v>3</v>
       </c>
       <c r="B181" s="7">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>3</v>
@@ -2655,7 +2604,7 @@
         <v>3</v>
       </c>
       <c r="B182" s="7">
-        <v>272</v>
+        <v>990</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>3</v>
@@ -2666,7 +2615,7 @@
         <v>3</v>
       </c>
       <c r="B183" s="7">
-        <v>482</v>
+        <v>233</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>3</v>
@@ -2677,7 +2626,7 @@
         <v>3</v>
       </c>
       <c r="B184" s="7">
-        <v>924</v>
+        <v>560</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>3</v>
@@ -2688,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="B185" s="7">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>3</v>
@@ -2699,7 +2648,7 @@
         <v>3</v>
       </c>
       <c r="B186" s="7">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>3</v>
@@ -2710,7 +2659,7 @@
         <v>3</v>
       </c>
       <c r="B187" s="7">
-        <v>132</v>
+        <v>866</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>3</v>
@@ -2721,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="B188" s="7">
-        <v>364</v>
+        <v>675</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>3</v>
@@ -2732,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="B189" s="7">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>3</v>
@@ -2743,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="B190" s="7">
-        <v>109</v>
+        <v>909</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>3</v>
@@ -2754,7 +2703,7 @@
         <v>3</v>
       </c>
       <c r="B191" s="7">
-        <v>567</v>
+        <v>117</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>3</v>
@@ -2765,7 +2714,7 @@
         <v>3</v>
       </c>
       <c r="B192" s="7">
-        <v>742</v>
+        <v>398</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>3</v>
@@ -2776,7 +2725,7 @@
         <v>3</v>
       </c>
       <c r="B193" s="7">
-        <v>363</v>
+        <v>473</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>3</v>
@@ -2787,7 +2736,7 @@
         <v>3</v>
       </c>
       <c r="B194" s="7">
-        <v>814</v>
+        <v>275</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>3</v>
@@ -2798,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="7">
-        <v>140</v>
+        <v>756</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>3</v>
@@ -2809,7 +2758,7 @@
         <v>3</v>
       </c>
       <c r="B196" s="8">
-        <v>990</v>
+        <v>164</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>3</v>
@@ -2820,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="B197" s="6">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>3</v>
@@ -2831,7 +2780,7 @@
         <v>3</v>
       </c>
       <c r="B198" s="7">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>3</v>
@@ -2842,7 +2791,7 @@
         <v>3</v>
       </c>
       <c r="B199" s="7">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>3</v>
@@ -2853,7 +2802,7 @@
         <v>3</v>
       </c>
       <c r="B200" s="7">
-        <v>120</v>
+        <v>579</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>3</v>
@@ -2864,7 +2813,7 @@
         <v>3</v>
       </c>
       <c r="B201" s="7">
-        <v>786</v>
+        <v>840</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>3</v>
@@ -2875,7 +2824,7 @@
         <v>3</v>
       </c>
       <c r="B202" s="7">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>3</v>
@@ -2886,7 +2835,7 @@
         <v>3</v>
       </c>
       <c r="B203" s="7">
-        <v>866</v>
+        <v>709</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>3</v>
@@ -2897,7 +2846,7 @@
         <v>3</v>
       </c>
       <c r="B204" s="7">
-        <v>675</v>
+        <v>745</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>3</v>
@@ -2908,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="B205" s="7">
-        <v>154</v>
+        <v>969</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>3</v>
@@ -2919,7 +2868,7 @@
         <v>3</v>
       </c>
       <c r="B206" s="7">
-        <v>730</v>
+        <v>801</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>3</v>
@@ -2930,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="B207" s="7">
-        <v>909</v>
+        <v>535</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>3</v>
@@ -2941,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="B208" s="7">
-        <v>117</v>
+        <v>918</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>3</v>
@@ -2952,7 +2901,7 @@
         <v>3</v>
       </c>
       <c r="B209" s="7">
-        <v>398</v>
+        <v>213</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>3</v>
@@ -2963,7 +2912,7 @@
         <v>3</v>
       </c>
       <c r="B210" s="7">
-        <v>114</v>
+        <v>891</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>3</v>
@@ -2974,7 +2923,7 @@
         <v>3</v>
       </c>
       <c r="B211" s="7">
-        <v>473</v>
+        <v>344</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>3</v>
@@ -2985,7 +2934,7 @@
         <v>3</v>
       </c>
       <c r="B212" s="7">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>3</v>
@@ -2996,7 +2945,7 @@
         <v>3</v>
       </c>
       <c r="B213" s="7">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>3</v>
@@ -3007,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="B214" s="7">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>3</v>
@@ -3018,7 +2967,7 @@
         <v>3</v>
       </c>
       <c r="B215" s="7">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>3</v>
@@ -3029,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="B216" s="7">
-        <v>577</v>
+        <v>769</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>3</v>
@@ -3040,7 +2989,7 @@
         <v>3</v>
       </c>
       <c r="B217" s="7">
-        <v>527</v>
+        <v>212</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>3</v>
@@ -3051,7 +3000,7 @@
         <v>3</v>
       </c>
       <c r="B218" s="7">
-        <v>319</v>
+        <v>925</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>3</v>
@@ -3062,7 +3011,7 @@
         <v>3</v>
       </c>
       <c r="B219" s="7">
-        <v>579</v>
+        <v>467</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>3</v>
@@ -3073,7 +3022,7 @@
         <v>3</v>
       </c>
       <c r="B220" s="7">
-        <v>840</v>
+        <v>123</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>3</v>
@@ -3084,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="B221" s="7">
-        <v>540</v>
+        <v>994</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>3</v>
@@ -3095,7 +3044,7 @@
         <v>3</v>
       </c>
       <c r="B222" s="7">
-        <v>97</v>
+        <v>736</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>3</v>
@@ -3106,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="B223" s="7">
-        <v>709</v>
+        <v>294</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>3</v>
@@ -3117,7 +3066,7 @@
         <v>3</v>
       </c>
       <c r="B224" s="8">
-        <v>745</v>
+        <v>115</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>3</v>
@@ -3128,7 +3077,7 @@
         <v>3</v>
       </c>
       <c r="B225" s="6">
-        <v>969</v>
+        <v>385</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>3</v>
@@ -3139,7 +3088,7 @@
         <v>3</v>
       </c>
       <c r="B226" s="7">
-        <v>801</v>
+        <v>303</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>3</v>
@@ -3150,7 +3099,7 @@
         <v>3</v>
       </c>
       <c r="B227" s="7">
-        <v>535</v>
+        <v>746</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>3</v>
@@ -3161,7 +3110,7 @@
         <v>3</v>
       </c>
       <c r="B228" s="7">
-        <v>962</v>
+        <v>588</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>3</v>
@@ -3172,7 +3121,7 @@
         <v>3</v>
       </c>
       <c r="B229" s="7">
-        <v>918</v>
+        <v>262</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>3</v>
@@ -3183,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="B230" s="7">
-        <v>213</v>
+        <v>943</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>3</v>
@@ -3194,7 +3143,7 @@
         <v>3</v>
       </c>
       <c r="B231" s="7">
-        <v>891</v>
+        <v>310</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>3</v>
@@ -3205,7 +3154,7 @@
         <v>3</v>
       </c>
       <c r="B232" s="7">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>3</v>
@@ -3216,7 +3165,7 @@
         <v>3</v>
       </c>
       <c r="B233" s="7">
-        <v>786</v>
+        <v>187</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>3</v>
@@ -3227,7 +3176,7 @@
         <v>3</v>
       </c>
       <c r="B234" s="7">
-        <v>286</v>
+        <v>47</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>3</v>
@@ -3238,7 +3187,7 @@
         <v>3</v>
       </c>
       <c r="B235" s="7">
-        <v>660</v>
+        <v>722</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>3</v>
@@ -3249,7 +3198,7 @@
         <v>3</v>
       </c>
       <c r="B236" s="7">
-        <v>75</v>
+        <v>393</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>3</v>
@@ -3260,7 +3209,7 @@
         <v>3</v>
       </c>
       <c r="B237" s="7">
-        <v>361</v>
+        <v>104</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>3</v>
@@ -3271,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B238" s="7">
-        <v>769</v>
+        <v>87</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>3</v>
@@ -3282,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="B239" s="7">
-        <v>212</v>
+        <v>519</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>3</v>
@@ -3293,7 +3242,7 @@
         <v>3</v>
       </c>
       <c r="B240" s="7">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>3</v>
@@ -3304,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="B241" s="7">
-        <v>75</v>
+        <v>503</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>3</v>
@@ -3315,7 +3264,7 @@
         <v>3</v>
       </c>
       <c r="B242" s="7">
-        <v>925</v>
+        <v>852</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>3</v>
@@ -3326,7 +3275,7 @@
         <v>3</v>
       </c>
       <c r="B243" s="7">
-        <v>467</v>
+        <v>646</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>3</v>
@@ -3337,7 +3286,7 @@
         <v>3</v>
       </c>
       <c r="B244" s="7">
-        <v>123</v>
+        <v>761</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>3</v>
@@ -3348,7 +3297,7 @@
         <v>3</v>
       </c>
       <c r="B245" s="7">
-        <v>856</v>
+        <v>84</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>3</v>
@@ -3359,7 +3308,7 @@
         <v>3</v>
       </c>
       <c r="B246" s="7">
-        <v>994</v>
+        <v>450</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>3</v>
@@ -3370,7 +3319,7 @@
         <v>3</v>
       </c>
       <c r="B247" s="7">
-        <v>736</v>
+        <v>396</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>3</v>
@@ -3381,7 +3330,7 @@
         <v>3</v>
       </c>
       <c r="B248" s="7">
-        <v>294</v>
+        <v>565</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>3</v>
@@ -3392,7 +3341,7 @@
         <v>3</v>
       </c>
       <c r="B249" s="7">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>3</v>
@@ -3403,7 +3352,7 @@
         <v>3</v>
       </c>
       <c r="B250" s="7">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>3</v>
@@ -3414,7 +3363,7 @@
         <v>3</v>
       </c>
       <c r="B251" s="7">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>3</v>
@@ -3425,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="B252" s="8">
-        <v>913</v>
+        <v>401</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>3</v>
@@ -3436,7 +3385,7 @@
         <v>3</v>
       </c>
       <c r="B253" s="6">
-        <v>746</v>
+        <v>301</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>3</v>
@@ -3447,7 +3396,7 @@
         <v>3</v>
       </c>
       <c r="B254" s="7">
-        <v>602</v>
+        <v>988</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>3</v>
@@ -3458,7 +3407,7 @@
         <v>3</v>
       </c>
       <c r="B255" s="7">
-        <v>850</v>
+        <v>196</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>3</v>
@@ -3469,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B256" s="7">
-        <v>656</v>
+        <v>690</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>3</v>
@@ -3480,7 +3429,7 @@
         <v>3</v>
       </c>
       <c r="B257" s="7">
-        <v>114</v>
+        <v>679</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>3</v>
@@ -3491,7 +3440,7 @@
         <v>3</v>
       </c>
       <c r="B258" s="7">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>3</v>
@@ -3502,7 +3451,7 @@
         <v>3</v>
       </c>
       <c r="B259" s="7">
-        <v>262</v>
+        <v>159</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>3</v>
@@ -3513,7 +3462,7 @@
         <v>3</v>
       </c>
       <c r="B260" s="7">
-        <v>943</v>
+        <v>279</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>3</v>
@@ -3524,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="B261" s="7">
-        <v>310</v>
+        <v>853</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>3</v>
@@ -3535,7 +3484,7 @@
         <v>3</v>
       </c>
       <c r="B262" s="7">
-        <v>715</v>
+        <v>330</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>3</v>
@@ -3546,7 +3495,7 @@
         <v>3</v>
       </c>
       <c r="B263" s="7">
-        <v>306</v>
+        <v>606</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>3</v>
@@ -3557,7 +3506,7 @@
         <v>3</v>
       </c>
       <c r="B264" s="7">
-        <v>187</v>
+        <v>462</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>3</v>
@@ -3568,7 +3517,7 @@
         <v>3</v>
       </c>
       <c r="B265" s="7">
-        <v>975</v>
+        <v>394</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>3</v>
@@ -3579,7 +3528,7 @@
         <v>3</v>
       </c>
       <c r="B266" s="7">
-        <v>47</v>
+        <v>487</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>3</v>
@@ -3590,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="B267" s="7">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>3</v>
@@ -3601,7 +3550,7 @@
         <v>3</v>
       </c>
       <c r="B268" s="7">
-        <v>722</v>
+        <v>946</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>3</v>
@@ -3612,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="B269" s="7">
-        <v>393</v>
+        <v>157</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>3</v>
@@ -3623,7 +3572,7 @@
         <v>3</v>
       </c>
       <c r="B270" s="7">
-        <v>104</v>
+        <v>877</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>3</v>
@@ -3634,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="B271" s="7">
-        <v>517</v>
+        <v>181</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>3</v>
@@ -3645,7 +3594,7 @@
         <v>3</v>
       </c>
       <c r="B272" s="7">
-        <v>87</v>
+        <v>797</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>3</v>
@@ -3656,7 +3605,7 @@
         <v>3</v>
       </c>
       <c r="B273" s="7">
-        <v>955</v>
+        <v>161</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>3</v>
@@ -3667,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="B274" s="7">
-        <v>519</v>
+        <v>763</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>3</v>
@@ -3678,7 +3627,7 @@
         <v>3</v>
       </c>
       <c r="B275" s="7">
-        <v>137</v>
+        <v>281</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>3</v>
@@ -3689,7 +3638,7 @@
         <v>3</v>
       </c>
       <c r="B276" s="7">
-        <v>106</v>
+        <v>760</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>3</v>
@@ -3700,7 +3649,7 @@
         <v>3</v>
       </c>
       <c r="B277" s="7">
-        <v>503</v>
+        <v>377</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>3</v>
@@ -3711,7 +3660,7 @@
         <v>3</v>
       </c>
       <c r="B278" s="7">
-        <v>852</v>
+        <v>644</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>3</v>
@@ -3722,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="B279" s="7">
-        <v>646</v>
+        <v>433</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>3</v>
@@ -3733,7 +3682,7 @@
         <v>3</v>
       </c>
       <c r="B280" s="8">
-        <v>144</v>
+        <v>628</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>3</v>
@@ -3744,7 +3693,7 @@
         <v>3</v>
       </c>
       <c r="B281" s="6">
-        <v>761</v>
+        <v>243</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>3</v>
@@ -3755,7 +3704,7 @@
         <v>3</v>
       </c>
       <c r="B282" s="7">
-        <v>84</v>
+        <v>472</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>3</v>
@@ -3766,7 +3715,7 @@
         <v>3</v>
       </c>
       <c r="B283" s="7">
-        <v>450</v>
+        <v>964</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>3</v>
@@ -3777,7 +3726,7 @@
         <v>3</v>
       </c>
       <c r="B284" s="7">
-        <v>396</v>
+        <v>967</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>3</v>
@@ -3788,7 +3737,7 @@
         <v>3</v>
       </c>
       <c r="B285" s="7">
-        <v>244</v>
+        <v>904</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>3</v>
@@ -3799,7 +3748,7 @@
         <v>3</v>
       </c>
       <c r="B286" s="7">
-        <v>765</v>
+        <v>92</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>3</v>
@@ -3810,7 +3759,7 @@
         <v>3</v>
       </c>
       <c r="B287" s="7">
-        <v>565</v>
+        <v>105</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>3</v>
@@ -3821,7 +3770,7 @@
         <v>3</v>
       </c>
       <c r="B288" s="7">
-        <v>58</v>
+        <v>512</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>3</v>
@@ -3832,7 +3781,7 @@
         <v>3</v>
       </c>
       <c r="B289" s="7">
-        <v>102</v>
+        <v>530</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>3</v>
@@ -3843,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="B290" s="7">
-        <v>447</v>
+        <v>615</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>3</v>
@@ -3854,7 +3803,7 @@
         <v>3</v>
       </c>
       <c r="B291" s="7">
-        <v>278</v>
+        <v>340</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>3</v>
@@ -3865,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B292" s="7">
-        <v>401</v>
+        <v>509</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>3</v>
@@ -3876,7 +3825,7 @@
         <v>3</v>
       </c>
       <c r="B293" s="7">
-        <v>750</v>
+        <v>828</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>3</v>
@@ -3887,7 +3836,7 @@
         <v>3</v>
       </c>
       <c r="B294" s="7">
-        <v>301</v>
+        <v>692</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>3</v>
@@ -3898,7 +3847,7 @@
         <v>3</v>
       </c>
       <c r="B295" s="7">
-        <v>988</v>
+        <v>391</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>3</v>
@@ -3909,7 +3858,7 @@
         <v>3</v>
       </c>
       <c r="B296" s="7">
-        <v>196</v>
+        <v>643</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>3</v>
@@ -3920,7 +3869,7 @@
         <v>3</v>
       </c>
       <c r="B297" s="7">
-        <v>690</v>
+        <v>183</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>3</v>
@@ -3931,7 +3880,7 @@
         <v>3</v>
       </c>
       <c r="B298" s="7">
-        <v>679</v>
+        <v>370</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>3</v>
@@ -3942,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="B299" s="7">
-        <v>601</v>
+        <v>719</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>3</v>
@@ -3953,7 +3902,7 @@
         <v>3</v>
       </c>
       <c r="B300" s="7">
-        <v>159</v>
+        <v>421</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>3</v>
@@ -3964,7 +3913,7 @@
         <v>3</v>
       </c>
       <c r="B301" s="7">
-        <v>279</v>
+        <v>583</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>3</v>
@@ -3975,7 +3924,7 @@
         <v>3</v>
       </c>
       <c r="B302" s="7">
-        <v>853</v>
+        <v>251</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>3</v>
@@ -3986,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="B303" s="7">
-        <v>330</v>
+        <v>593</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>3</v>
@@ -3997,7 +3946,7 @@
         <v>3</v>
       </c>
       <c r="B304" s="7">
-        <v>84</v>
+        <v>486</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>3</v>
@@ -4008,7 +3957,7 @@
         <v>3</v>
       </c>
       <c r="B305" s="7">
-        <v>819</v>
+        <v>333</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>3</v>
@@ -4019,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="B306" s="7">
-        <v>606</v>
+        <v>903</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>3</v>
@@ -4030,7 +3979,7 @@
         <v>3</v>
       </c>
       <c r="B307" s="8">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>3</v>
@@ -4041,7 +3990,7 @@
         <v>3</v>
       </c>
       <c r="B308" s="6">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>3</v>
@@ -4052,7 +4001,7 @@
         <v>3</v>
       </c>
       <c r="B309" s="7">
-        <v>923</v>
+        <v>60</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>3</v>
@@ -4063,7 +4012,7 @@
         <v>3</v>
       </c>
       <c r="B310" s="7">
-        <v>487</v>
+        <v>772</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>3</v>
@@ -4074,7 +4023,7 @@
         <v>3</v>
       </c>
       <c r="B311" s="7">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>3</v>
@@ -4085,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="B312" s="7">
-        <v>844</v>
+        <v>336</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>3</v>
@@ -4096,7 +4045,7 @@
         <v>3</v>
       </c>
       <c r="B313" s="7">
-        <v>946</v>
+        <v>413</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>3</v>
@@ -4107,7 +4056,7 @@
         <v>3</v>
       </c>
       <c r="B314" s="7">
-        <v>769</v>
+        <v>56</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>3</v>
@@ -4118,7 +4067,7 @@
         <v>3</v>
       </c>
       <c r="B315" s="7">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>3</v>
@@ -4129,7 +4078,7 @@
         <v>3</v>
       </c>
       <c r="B316" s="7">
-        <v>462</v>
+        <v>367</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>3</v>
@@ -4140,7 +4089,7 @@
         <v>3</v>
       </c>
       <c r="B317" s="7">
-        <v>801</v>
+        <v>747</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>3</v>
@@ -4151,7 +4100,7 @@
         <v>3</v>
       </c>
       <c r="B318" s="7">
-        <v>877</v>
+        <v>383</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>3</v>
@@ -4162,7 +4111,7 @@
         <v>3</v>
       </c>
       <c r="B319" s="7">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>3</v>
@@ -4173,7 +4122,7 @@
         <v>3</v>
       </c>
       <c r="B320" s="7">
-        <v>797</v>
+        <v>289</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>3</v>
@@ -4184,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="B321" s="7">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>3</v>
@@ -4195,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="B322" s="7">
-        <v>213</v>
+        <v>839</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>3</v>
@@ -4206,7 +4155,7 @@
         <v>3</v>
       </c>
       <c r="B323" s="7">
-        <v>361</v>
+        <v>830</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>3</v>
@@ -4217,7 +4166,7 @@
         <v>3</v>
       </c>
       <c r="B324" s="7">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>3</v>
@@ -4228,7 +4177,7 @@
         <v>3</v>
       </c>
       <c r="B325" s="7">
-        <v>310</v>
+        <v>86</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>3</v>
@@ -4239,7 +4188,7 @@
         <v>3</v>
       </c>
       <c r="B326" s="7">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>3</v>
@@ -4250,7 +4199,7 @@
         <v>3</v>
       </c>
       <c r="B327" s="7">
-        <v>850</v>
+        <v>538</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>3</v>
@@ -4261,7 +4210,7 @@
         <v>3</v>
       </c>
       <c r="B328" s="7">
-        <v>760</v>
+        <v>972</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>3</v>
@@ -4272,7 +4221,7 @@
         <v>3</v>
       </c>
       <c r="B329" s="7">
-        <v>377</v>
+        <v>882</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>3</v>
@@ -4283,7 +4232,7 @@
         <v>3</v>
       </c>
       <c r="B330" s="7">
-        <v>644</v>
+        <v>523</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>3</v>
@@ -4294,7 +4243,7 @@
         <v>3</v>
       </c>
       <c r="B331" s="7">
-        <v>765</v>
+        <v>911</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>3</v>
@@ -4305,7 +4254,7 @@
         <v>3</v>
       </c>
       <c r="B332" s="7">
-        <v>433</v>
+        <v>55</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>3</v>
@@ -4316,7 +4265,7 @@
         <v>3</v>
       </c>
       <c r="B333" s="7">
-        <v>628</v>
+        <v>691</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>3</v>
@@ -4327,7 +4276,7 @@
         <v>3</v>
       </c>
       <c r="B334" s="7">
-        <v>243</v>
+        <v>506</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>3</v>
@@ -4338,7 +4287,7 @@
         <v>3</v>
       </c>
       <c r="B335" s="8">
-        <v>923</v>
+        <v>770</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>3</v>
@@ -4349,7 +4298,7 @@
         <v>3</v>
       </c>
       <c r="B336" s="6">
-        <v>396</v>
+        <v>735</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>3</v>
@@ -4360,7 +4309,7 @@
         <v>3</v>
       </c>
       <c r="B337" s="7">
-        <v>472</v>
+        <v>320</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>3</v>
@@ -4371,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="B338" s="7">
-        <v>964</v>
+        <v>292</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>3</v>
@@ -4382,7 +4331,7 @@
         <v>3</v>
       </c>
       <c r="B339" s="7">
-        <v>394</v>
+        <v>655</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>3</v>
@@ -4393,7 +4342,7 @@
         <v>3</v>
       </c>
       <c r="B340" s="7">
-        <v>967</v>
+        <v>388</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>3</v>
@@ -4404,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="B341" s="7">
-        <v>302</v>
+        <v>634</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>3</v>
@@ -4415,7 +4364,7 @@
         <v>3</v>
       </c>
       <c r="B342" s="7">
-        <v>904</v>
+        <v>670</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>3</v>
@@ -4426,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="B343" s="7">
-        <v>92</v>
+        <v>417</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>3</v>
@@ -4437,7 +4386,7 @@
         <v>3</v>
       </c>
       <c r="B344" s="7">
-        <v>164</v>
+        <v>937</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>3</v>
@@ -4448,7 +4397,7 @@
         <v>3</v>
       </c>
       <c r="B345" s="7">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>3</v>
@@ -4459,7 +4408,7 @@
         <v>3</v>
       </c>
       <c r="B346" s="7">
-        <v>512</v>
+        <v>965</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>3</v>
@@ -4470,7 +4419,7 @@
         <v>3</v>
       </c>
       <c r="B347" s="7">
-        <v>530</v>
+        <v>445</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>3</v>
@@ -4481,7 +4430,7 @@
         <v>3</v>
       </c>
       <c r="B348" s="7">
-        <v>615</v>
+        <v>505</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>3</v>
@@ -4492,7 +4441,7 @@
         <v>3</v>
       </c>
       <c r="B349" s="7">
-        <v>340</v>
+        <v>225</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>3</v>
@@ -4503,7 +4452,7 @@
         <v>3</v>
       </c>
       <c r="B350" s="7">
-        <v>509</v>
+        <v>696</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>3</v>
@@ -4514,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="B351" s="7">
-        <v>828</v>
+        <v>993</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>3</v>
@@ -4525,7 +4474,7 @@
         <v>3</v>
       </c>
       <c r="B352" s="7">
-        <v>692</v>
+        <v>406</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>3</v>
@@ -4536,7 +4485,7 @@
         <v>3</v>
       </c>
       <c r="B353" s="7">
-        <v>391</v>
+        <v>520</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>3</v>
@@ -4547,7 +4496,7 @@
         <v>3</v>
       </c>
       <c r="B354" s="7">
-        <v>643</v>
+        <v>426</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>3</v>
@@ -4558,7 +4507,7 @@
         <v>3</v>
       </c>
       <c r="B355" s="7">
-        <v>183</v>
+        <v>349</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>3</v>
@@ -4569,7 +4518,7 @@
         <v>3</v>
       </c>
       <c r="B356" s="7">
-        <v>370</v>
+        <v>952</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>3</v>
@@ -4580,7 +4529,7 @@
         <v>3</v>
       </c>
       <c r="B357" s="7">
-        <v>719</v>
+        <v>493</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>3</v>
@@ -4591,7 +4540,7 @@
         <v>3</v>
       </c>
       <c r="B358" s="7">
-        <v>421</v>
+        <v>314</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>3</v>
@@ -4602,7 +4551,7 @@
         <v>3</v>
       </c>
       <c r="B359" s="7">
-        <v>895</v>
+        <v>829</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>3</v>
@@ -4613,7 +4562,7 @@
         <v>3</v>
       </c>
       <c r="B360" s="7">
-        <v>583</v>
+        <v>218</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>3</v>
@@ -4624,7 +4573,7 @@
         <v>3</v>
       </c>
       <c r="B361" s="7">
-        <v>251</v>
+        <v>970</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>3</v>
@@ -4635,7 +4584,7 @@
         <v>3</v>
       </c>
       <c r="B362" s="7">
-        <v>593</v>
+        <v>165</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>3</v>
@@ -4646,7 +4595,7 @@
         <v>3</v>
       </c>
       <c r="B363" s="8">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>3</v>
@@ -4657,7 +4606,7 @@
         <v>3</v>
       </c>
       <c r="B364" s="6">
-        <v>333</v>
+        <v>595</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>3</v>
@@ -4668,7 +4617,7 @@
         <v>3</v>
       </c>
       <c r="B365" s="7">
-        <v>626</v>
+        <v>878</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>3</v>
@@ -4679,7 +4628,7 @@
         <v>3</v>
       </c>
       <c r="B366" s="7">
-        <v>204</v>
+        <v>833</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>3</v>
@@ -4690,7 +4639,7 @@
         <v>3</v>
       </c>
       <c r="B367" s="7">
-        <v>903</v>
+        <v>676</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>3</v>
@@ -4701,7 +4650,7 @@
         <v>3</v>
       </c>
       <c r="B368" s="7">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>3</v>
@@ -4712,7 +4661,7 @@
         <v>3</v>
       </c>
       <c r="B369" s="7">
-        <v>479</v>
+        <v>126</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>3</v>
@@ -4723,7 +4672,7 @@
         <v>3</v>
       </c>
       <c r="B370" s="7">
-        <v>429</v>
+        <v>862</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>3</v>
@@ -4734,7 +4683,7 @@
         <v>3</v>
       </c>
       <c r="B371" s="7">
-        <v>140</v>
+        <v>776</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>3</v>
@@ -4745,7 +4694,7 @@
         <v>3</v>
       </c>
       <c r="B372" s="7">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>3</v>
@@ -4756,7 +4705,7 @@
         <v>3</v>
       </c>
       <c r="B373" s="7">
-        <v>517</v>
+        <v>61</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>3</v>
@@ -4767,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="B374" s="7">
-        <v>424</v>
+        <v>288</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>3</v>
@@ -4778,7 +4727,7 @@
         <v>3</v>
       </c>
       <c r="B375" s="7">
-        <v>772</v>
+        <v>616</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>3</v>
@@ -4789,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="B376" s="7">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>3</v>
@@ -4800,7 +4749,7 @@
         <v>3</v>
       </c>
       <c r="B377" s="7">
-        <v>85</v>
+        <v>284</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>3</v>
@@ -4811,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="B378" s="7">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>3</v>
@@ -4822,7 +4771,7 @@
         <v>3</v>
       </c>
       <c r="B379" s="7">
-        <v>413</v>
+        <v>285</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>3</v>
@@ -4833,7 +4782,7 @@
         <v>3</v>
       </c>
       <c r="B380" s="7">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>3</v>
@@ -4844,7 +4793,7 @@
         <v>3</v>
       </c>
       <c r="B381" s="7">
-        <v>56</v>
+        <v>744</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>3</v>
@@ -4855,7 +4804,7 @@
         <v>3</v>
       </c>
       <c r="B382" s="7">
-        <v>909</v>
+        <v>686</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>3</v>
@@ -4866,7 +4815,7 @@
         <v>3</v>
       </c>
       <c r="B383" s="7">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>3</v>
@@ -4877,7 +4826,7 @@
         <v>3</v>
       </c>
       <c r="B384" s="7">
-        <v>337</v>
+        <v>619</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>3</v>
@@ -4888,7 +4837,7 @@
         <v>3</v>
       </c>
       <c r="B385" s="7">
-        <v>251</v>
+        <v>919</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>3</v>
@@ -4899,7 +4848,7 @@
         <v>3</v>
       </c>
       <c r="B386" s="7">
-        <v>367</v>
+        <v>531</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>3</v>
@@ -4910,1267 +4859,584 @@
         <v>3</v>
       </c>
       <c r="B387" s="7">
-        <v>761</v>
+        <v>580</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B388" s="7">
-        <v>747</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A388"/>
+      <c r="B388"/>
+      <c r="C388"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B389" s="7">
-        <v>383</v>
-      </c>
-      <c r="C389" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B390" s="8">
-        <v>49</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A389"/>
+      <c r="B389"/>
+      <c r="C389"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390"/>
+      <c r="B390"/>
+      <c r="C390"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B391" s="6">
-        <v>487</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A391"/>
+      <c r="B391"/>
+      <c r="C391"/>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B392" s="7">
-        <v>289</v>
-      </c>
-      <c r="C392" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A392"/>
+      <c r="B392"/>
+      <c r="C392"/>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B393" s="7">
-        <v>24</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A393"/>
+      <c r="B393"/>
+      <c r="C393"/>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B394" s="7">
-        <v>839</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A394"/>
+      <c r="B394"/>
+      <c r="C394"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B395" s="7">
-        <v>830</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A395"/>
+      <c r="B395"/>
+      <c r="C395"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B396" s="7">
-        <v>738</v>
-      </c>
-      <c r="C396" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A396"/>
+      <c r="B396"/>
+      <c r="C396"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B397" s="7">
-        <v>890</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A397"/>
+      <c r="B397"/>
+      <c r="C397"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B398" s="7">
-        <v>86</v>
-      </c>
-      <c r="C398" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A398"/>
+      <c r="B398"/>
+      <c r="C398"/>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B399" s="7">
-        <v>27</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A399"/>
+      <c r="B399"/>
+      <c r="C399"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B400" s="7">
-        <v>538</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A400"/>
+      <c r="B400"/>
+      <c r="C400"/>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B401" s="7">
-        <v>972</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A401"/>
+      <c r="B401"/>
+      <c r="C401"/>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B402" s="7">
-        <v>882</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A402"/>
+      <c r="B402"/>
+      <c r="C402"/>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B403" s="7">
-        <v>523</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A403"/>
+      <c r="B403"/>
+      <c r="C403"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B404" s="7">
-        <v>121</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A404"/>
+      <c r="B404"/>
+      <c r="C404"/>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B405" s="7">
-        <v>911</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A405"/>
+      <c r="B405"/>
+      <c r="C405"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B406" s="7">
-        <v>55</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A406"/>
+      <c r="B406"/>
+      <c r="C406"/>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B407" s="7">
-        <v>691</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A407"/>
+      <c r="B407"/>
+      <c r="C407"/>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B408" s="7">
-        <v>837</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A408"/>
+      <c r="B408"/>
+      <c r="C408"/>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B409" s="7">
-        <v>506</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A409"/>
+      <c r="B409"/>
+      <c r="C409"/>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B410" s="7">
-        <v>348</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A410"/>
+      <c r="B410"/>
+      <c r="C410"/>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B411" s="7">
-        <v>770</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A411"/>
+      <c r="B411"/>
+      <c r="C411"/>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B412" s="7">
-        <v>204</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A412"/>
+      <c r="B412"/>
+      <c r="C412"/>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B413" s="7">
-        <v>917</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A413"/>
+      <c r="B413"/>
+      <c r="C413"/>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B414" s="7">
-        <v>58</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A414"/>
+      <c r="B414"/>
+      <c r="C414"/>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B415" s="7">
-        <v>735</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A415"/>
+      <c r="B415"/>
+      <c r="C415"/>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B416" s="7">
-        <v>503</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A416"/>
+      <c r="B416"/>
+      <c r="C416"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B417" s="7">
-        <v>969</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B418" s="8">
-        <v>320</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A417"/>
+      <c r="B417"/>
+      <c r="C417"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418"/>
+      <c r="B418"/>
+      <c r="C418"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B419" s="6">
-        <v>340</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A419"/>
+      <c r="B419"/>
+      <c r="C419"/>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B420" s="7">
-        <v>292</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A420"/>
+      <c r="B420"/>
+      <c r="C420"/>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B421" s="7">
-        <v>655</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A421"/>
+      <c r="B421"/>
+      <c r="C421"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B422" s="7">
-        <v>772</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A422"/>
+      <c r="B422"/>
+      <c r="C422"/>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B423" s="7">
-        <v>388</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A423"/>
+      <c r="B423"/>
+      <c r="C423"/>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B424" s="7">
-        <v>634</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A424"/>
+      <c r="B424"/>
+      <c r="C424"/>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B425" s="7">
-        <v>670</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A425"/>
+      <c r="B425"/>
+      <c r="C425"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B426" s="7">
-        <v>417</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A426"/>
+      <c r="B426"/>
+      <c r="C426"/>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B427" s="7">
-        <v>462</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A427"/>
+      <c r="B427"/>
+      <c r="C427"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B428" s="7">
-        <v>937</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A428"/>
+      <c r="B428"/>
+      <c r="C428"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B429" s="7">
-        <v>178</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A429"/>
+      <c r="B429"/>
+      <c r="C429"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B430" s="7">
-        <v>319</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A430"/>
+      <c r="B430"/>
+      <c r="C430"/>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B431" s="7">
-        <v>144</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A431"/>
+      <c r="B431"/>
+      <c r="C431"/>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B432" s="7">
-        <v>965</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A432"/>
+      <c r="B432"/>
+      <c r="C432"/>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B433" s="7">
-        <v>445</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A433"/>
+      <c r="B433"/>
+      <c r="C433"/>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B434" s="7">
-        <v>505</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A434"/>
+      <c r="B434"/>
+      <c r="C434"/>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B435" s="7">
-        <v>778</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A435"/>
+      <c r="B435"/>
+      <c r="C435"/>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B436" s="7">
-        <v>917</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A436"/>
+      <c r="B436"/>
+      <c r="C436"/>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B437" s="7">
-        <v>225</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A437"/>
+      <c r="B437"/>
+      <c r="C437"/>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B438" s="7">
-        <v>898</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A438"/>
+      <c r="B438"/>
+      <c r="C438"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B439" s="7">
-        <v>696</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A439"/>
+      <c r="B439"/>
+      <c r="C439"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B440" s="7">
-        <v>993</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A440"/>
+      <c r="B440"/>
+      <c r="C440"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B441" s="7">
-        <v>406</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A441"/>
+      <c r="B441"/>
+      <c r="C441"/>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B442" s="7">
-        <v>828</v>
-      </c>
-      <c r="C442" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A442"/>
+      <c r="B442"/>
+      <c r="C442"/>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B443" s="7">
-        <v>520</v>
-      </c>
-      <c r="C443" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A443"/>
+      <c r="B443"/>
+      <c r="C443"/>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B444" s="7">
-        <v>426</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A444"/>
+      <c r="B444"/>
+      <c r="C444"/>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B445" s="7">
-        <v>349</v>
-      </c>
-      <c r="C445" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B446" s="8">
-        <v>293</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A445"/>
+      <c r="B445"/>
+      <c r="C445"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446"/>
+      <c r="B446"/>
+      <c r="C446"/>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B447" s="6">
-        <v>952</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A447"/>
+      <c r="B447"/>
+      <c r="C447"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B448" s="7">
-        <v>493</v>
-      </c>
-      <c r="C448" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A448"/>
+      <c r="B448"/>
+      <c r="C448"/>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B449" s="7">
-        <v>314</v>
-      </c>
-      <c r="C449" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A449"/>
+      <c r="B449"/>
+      <c r="C449"/>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B450" s="7">
-        <v>829</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A450"/>
+      <c r="B450"/>
+      <c r="C450"/>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B451" s="7">
-        <v>668</v>
-      </c>
-      <c r="C451" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A451"/>
+      <c r="B451"/>
+      <c r="C451"/>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B452" s="7">
-        <v>239</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A452"/>
+      <c r="B452"/>
+      <c r="C452"/>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B453" s="7">
-        <v>218</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A453"/>
+      <c r="B453"/>
+      <c r="C453"/>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B454" s="7">
-        <v>990</v>
-      </c>
-      <c r="C454" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A454"/>
+      <c r="B454"/>
+      <c r="C454"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B455" s="7">
-        <v>970</v>
-      </c>
-      <c r="C455" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A455"/>
+      <c r="B455"/>
+      <c r="C455"/>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B456" s="7">
-        <v>383</v>
-      </c>
-      <c r="C456" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A456"/>
+      <c r="B456"/>
+      <c r="C456"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B457" s="7">
-        <v>165</v>
-      </c>
-      <c r="C457" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A457"/>
+      <c r="B457"/>
+      <c r="C457"/>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B458" s="7">
-        <v>719</v>
-      </c>
-      <c r="C458" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A458"/>
+      <c r="B458"/>
+      <c r="C458"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B459" s="7">
-        <v>464</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A459"/>
+      <c r="B459"/>
+      <c r="C459"/>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B460" s="7">
-        <v>470</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A460"/>
+      <c r="B460"/>
+      <c r="C460"/>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B461" s="7">
-        <v>595</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A461"/>
+      <c r="B461"/>
+      <c r="C461"/>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B462" s="7">
-        <v>195</v>
-      </c>
-      <c r="C462" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A462"/>
+      <c r="B462"/>
+      <c r="C462"/>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B463" s="7">
-        <v>786</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A463"/>
+      <c r="B463"/>
+      <c r="C463"/>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B464" s="7">
-        <v>878</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A464"/>
+      <c r="B464"/>
+      <c r="C464"/>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A465" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B465" s="7">
-        <v>833</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A465"/>
+      <c r="B465"/>
+      <c r="C465"/>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A466" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B466" s="7">
-        <v>937</v>
-      </c>
-      <c r="C466" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A466"/>
+      <c r="B466"/>
+      <c r="C466"/>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B467" s="7">
-        <v>676</v>
-      </c>
-      <c r="C467" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A467"/>
+      <c r="B467"/>
+      <c r="C467"/>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B468" s="7">
-        <v>838</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A468"/>
+      <c r="B468"/>
+      <c r="C468"/>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B469" s="7">
-        <v>126</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A469"/>
+      <c r="B469"/>
+      <c r="C469"/>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B470" s="7">
-        <v>862</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A470"/>
+      <c r="B470"/>
+      <c r="C470"/>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B471" s="7">
-        <v>776</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A471"/>
+      <c r="B471"/>
+      <c r="C471"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B472" s="7">
-        <v>136</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A472"/>
+      <c r="B472"/>
+      <c r="C472"/>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B473" s="7">
-        <v>61</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B474" s="8">
-        <v>288</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A473"/>
+      <c r="B473"/>
+      <c r="C473"/>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474"/>
+      <c r="B474"/>
+      <c r="C474"/>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B475" s="9">
-        <v>56</v>
-      </c>
-      <c r="C475" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A475"/>
+      <c r="B475"/>
+      <c r="C475"/>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A476" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B476" s="10">
-        <v>675</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A476"/>
+      <c r="B476"/>
+      <c r="C476"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A477" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B477" s="10">
-        <v>616</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A477"/>
+      <c r="B477"/>
+      <c r="C477"/>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A478" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B478" s="10">
-        <v>85</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A478"/>
+      <c r="B478"/>
+      <c r="C478"/>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B479" s="10">
-        <v>967</v>
-      </c>
-      <c r="C479" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A479"/>
+      <c r="B479"/>
+      <c r="C479"/>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A480" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B480" s="10">
-        <v>207</v>
-      </c>
-      <c r="C480" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A480"/>
+      <c r="B480"/>
+      <c r="C480"/>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B481" s="10">
-        <v>284</v>
-      </c>
-      <c r="C481" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A481"/>
+      <c r="B481"/>
+      <c r="C481"/>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A482" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B482" s="10">
-        <v>472</v>
-      </c>
-      <c r="C482" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A482"/>
+      <c r="B482"/>
+      <c r="C482"/>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A483" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B483" s="10">
-        <v>276</v>
-      </c>
-      <c r="C483" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A483"/>
+      <c r="B483"/>
+      <c r="C483"/>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B484" s="10">
-        <v>675</v>
-      </c>
-      <c r="C484" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A484"/>
+      <c r="B484"/>
+      <c r="C484"/>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B485" s="10">
-        <v>87</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A485"/>
+      <c r="B485"/>
+      <c r="C485"/>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B486" s="10">
-        <v>349</v>
-      </c>
-      <c r="C486" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A486"/>
+      <c r="B486"/>
+      <c r="C486"/>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A487" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B487" s="10">
-        <v>814</v>
-      </c>
-      <c r="C487" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A487"/>
+      <c r="B487"/>
+      <c r="C487"/>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A488" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B488" s="10">
-        <v>371</v>
-      </c>
-      <c r="C488" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A488"/>
+      <c r="B488"/>
+      <c r="C488"/>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A489" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B489" s="10">
-        <v>285</v>
-      </c>
-      <c r="C489" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A489"/>
+      <c r="B489"/>
+      <c r="C489"/>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B490" s="10">
-        <v>376</v>
-      </c>
-      <c r="C490" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A490"/>
+      <c r="B490"/>
+      <c r="C490"/>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A491" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B491" s="10">
-        <v>744</v>
-      </c>
-      <c r="C491" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A491"/>
+      <c r="B491"/>
+      <c r="C491"/>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B492" s="10">
-        <v>769</v>
-      </c>
-      <c r="C492" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A492"/>
+      <c r="B492"/>
+      <c r="C492"/>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A493" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B493" s="10">
-        <v>75</v>
-      </c>
-      <c r="C493" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A493"/>
+      <c r="B493"/>
+      <c r="C493"/>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A494" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B494" s="10">
-        <v>686</v>
-      </c>
-      <c r="C494" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A494"/>
+      <c r="B494"/>
+      <c r="C494"/>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B495" s="10">
-        <v>46</v>
-      </c>
-      <c r="C495" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A495"/>
+      <c r="B495"/>
+      <c r="C495"/>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B496" s="10">
-        <v>161</v>
-      </c>
-      <c r="C496" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A496"/>
+      <c r="B496"/>
+      <c r="C496"/>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B497" s="10">
-        <v>619</v>
-      </c>
-      <c r="C497" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A497"/>
+      <c r="B497"/>
+      <c r="C497"/>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A498" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B498" s="10">
-        <v>919</v>
-      </c>
-      <c r="C498" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A498"/>
+      <c r="B498"/>
+      <c r="C498"/>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A499" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B499" s="10">
-        <v>531</v>
-      </c>
-      <c r="C499" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A499"/>
+      <c r="B499"/>
+      <c r="C499"/>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A500" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B500" s="10">
-        <v>22</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B501" s="11">
-        <v>580</v>
-      </c>
-      <c r="C501" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A500"/>
+      <c r="B500"/>
+      <c r="C500"/>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501"/>
+      <c r="B501"/>
+      <c r="C501"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C387" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lrzsz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work2022\年会抽奖\lottery\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD0A0AF-CB17-4751-9A14-AF811B9C4056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8404E66-FD18-45B5-A9D8-2C9188D1C9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-2948" windowWidth="28995" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="4">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,8 +50,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -104,23 +105,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <b/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,98 +149,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,8 +166,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,31 +180,23 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2" xr:uid="{BAFF0DE7-C6D6-49AB-BBD9-ABE49312D9E3}"/>
     <cellStyle name="常规 3" xfId="1" xr:uid="{E1989D6B-DBFC-4703-A3BC-2887212FD407}"/>
     <cellStyle name="常规 5" xfId="4" xr:uid="{E32F339F-D6DB-4569-BE3E-3BB4D7C6AECF}"/>
     <cellStyle name="千位分隔 3" xfId="3" xr:uid="{7BC2E8A8-FC98-4C86-BDFF-29F1180608D8}"/>
+    <cellStyle name="千位分隔 3 2" xfId="5" xr:uid="{3D67DB5D-2E11-4A71-888D-DEA0F0809D43}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -599,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="B387" sqref="B387"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -608,7 +519,7 @@
     <col min="1" max="16384" width="26.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,8 +534,8 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>742</v>
+      <c r="B2" s="4">
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -635,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>842</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -646,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>438</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -657,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>587</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -668,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -679,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -690,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4">
-        <v>466</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -701,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="4">
-        <v>525</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
@@ -712,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="4">
-        <v>622</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -723,7 +634,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="4">
-        <v>348</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
@@ -734,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="4">
-        <v>734</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -745,7 +656,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="4">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -756,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>478</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -767,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="4">
-        <v>302</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
@@ -778,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="4">
-        <v>572</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -789,7 +700,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="4">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
@@ -800,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -811,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>989</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
@@ -822,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="4">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -833,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="4">
-        <v>244</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
@@ -844,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="4">
-        <v>415</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -855,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>613</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
@@ -866,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="4">
-        <v>765</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -877,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="4">
-        <v>992</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>3</v>
@@ -888,7 +799,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="4">
-        <v>792</v>
+        <v>97</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -899,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="4">
-        <v>653</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
@@ -910,18 +821,18 @@
         <v>3</v>
       </c>
       <c r="B28" s="4">
-        <v>983</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="5">
-        <v>856</v>
+      <c r="B29" s="4">
+        <v>104</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
@@ -931,8 +842,8 @@
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="6">
-        <v>228</v>
+      <c r="B30" s="4">
+        <v>105</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -942,8 +853,8 @@
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="7">
-        <v>359</v>
+      <c r="B31" s="4">
+        <v>106</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>3</v>
@@ -953,8 +864,8 @@
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="7">
-        <v>870</v>
+      <c r="B32" s="4">
+        <v>107</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
@@ -964,8 +875,8 @@
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="7">
-        <v>758</v>
+      <c r="B33" s="4">
+        <v>108</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
@@ -975,8 +886,8 @@
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="7">
-        <v>875</v>
+      <c r="B34" s="4">
+        <v>109</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
@@ -986,8 +897,8 @@
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="7">
-        <v>748</v>
+      <c r="B35" s="4">
+        <v>110</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>3</v>
@@ -997,8 +908,8 @@
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="7">
-        <v>849</v>
+      <c r="B36" s="4">
+        <v>113</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
@@ -1008,8 +919,8 @@
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="7">
-        <v>953</v>
+      <c r="B37" s="4">
+        <v>114</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>3</v>
@@ -1019,8 +930,8 @@
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="7">
-        <v>956</v>
+      <c r="B38" s="4">
+        <v>115</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
@@ -1030,8 +941,8 @@
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="7">
-        <v>295</v>
+      <c r="B39" s="4">
+        <v>116</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>3</v>
@@ -1041,8 +952,8 @@
       <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="7">
-        <v>762</v>
+      <c r="B40" s="4">
+        <v>117</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
@@ -1052,8 +963,8 @@
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="7">
-        <v>975</v>
+      <c r="B41" s="4">
+        <v>120</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>3</v>
@@ -1063,8 +974,8 @@
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="7">
-        <v>81</v>
+      <c r="B42" s="4">
+        <v>121</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
@@ -1074,8 +985,8 @@
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="7">
-        <v>974</v>
+      <c r="B43" s="4">
+        <v>123</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>3</v>
@@ -1085,8 +996,8 @@
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="7">
-        <v>810</v>
+      <c r="B44" s="4">
+        <v>126</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
@@ -1096,8 +1007,8 @@
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="7">
-        <v>312</v>
+      <c r="B45" s="4">
+        <v>132</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>3</v>
@@ -1107,8 +1018,8 @@
       <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="7">
-        <v>707</v>
+      <c r="B46" s="4">
+        <v>136</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
@@ -1118,8 +1029,8 @@
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="7">
-        <v>424</v>
+      <c r="B47" s="4">
+        <v>137</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>3</v>
@@ -1129,8 +1040,8 @@
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="7">
-        <v>107</v>
+      <c r="B48" s="4">
+        <v>140</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
@@ -1140,8 +1051,8 @@
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="7">
-        <v>685</v>
+      <c r="B49" s="4">
+        <v>144</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>3</v>
@@ -1151,8 +1062,8 @@
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="7">
-        <v>177</v>
+      <c r="B50" s="4">
+        <v>148</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>3</v>
@@ -1162,8 +1073,8 @@
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="7">
-        <v>895</v>
+      <c r="B51" s="4">
+        <v>154</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>3</v>
@@ -1173,8 +1084,8 @@
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="7">
-        <v>449</v>
+      <c r="B52" s="4">
+        <v>157</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>3</v>
@@ -1184,8 +1095,8 @@
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="7">
-        <v>704</v>
+      <c r="B53" s="4">
+        <v>159</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>3</v>
@@ -1195,8 +1106,8 @@
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="7">
-        <v>730</v>
+      <c r="B54" s="4">
+        <v>161</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>3</v>
@@ -1206,8 +1117,8 @@
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="7">
-        <v>843</v>
+      <c r="B55" s="4">
+        <v>164</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>3</v>
@@ -1217,19 +1128,19 @@
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="7">
-        <v>550</v>
+      <c r="B56" s="4">
+        <v>165</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="8">
-        <v>917</v>
+      <c r="B57" s="4">
+        <v>167</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>3</v>
@@ -1239,8 +1150,8 @@
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="6">
-        <v>446</v>
+      <c r="B58" s="4">
+        <v>171</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>3</v>
@@ -1250,8 +1161,8 @@
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="7">
-        <v>799</v>
+      <c r="B59" s="4">
+        <v>173</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>3</v>
@@ -1261,8 +1172,8 @@
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="7">
-        <v>672</v>
+      <c r="B60" s="4">
+        <v>176</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>3</v>
@@ -1272,8 +1183,8 @@
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="7">
-        <v>79</v>
+      <c r="B61" s="4">
+        <v>177</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>3</v>
@@ -1283,8 +1194,8 @@
       <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="7">
-        <v>287</v>
+      <c r="B62" s="4">
+        <v>178</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>3</v>
@@ -1294,8 +1205,8 @@
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="7">
-        <v>592</v>
+      <c r="B63" s="4">
+        <v>181</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>3</v>
@@ -1305,8 +1216,8 @@
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="7">
-        <v>337</v>
+      <c r="B64" s="4">
+        <v>183</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>3</v>
@@ -1316,8 +1227,8 @@
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="7">
-        <v>559</v>
+      <c r="B65" s="4">
+        <v>186</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>3</v>
@@ -1327,8 +1238,8 @@
       <c r="A66" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="7">
-        <v>778</v>
+      <c r="B66" s="4">
+        <v>187</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>3</v>
@@ -1338,8 +1249,8 @@
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="7">
-        <v>654</v>
+      <c r="B67" s="4">
+        <v>191</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>3</v>
@@ -1349,8 +1260,8 @@
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="7">
-        <v>939</v>
+      <c r="B68" s="4">
+        <v>192</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>3</v>
@@ -1360,8 +1271,8 @@
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="7">
-        <v>469</v>
+      <c r="B69" s="4">
+        <v>195</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>3</v>
@@ -1371,8 +1282,8 @@
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="7">
-        <v>890</v>
+      <c r="B70" s="4">
+        <v>196</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>3</v>
@@ -1382,8 +1293,8 @@
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="7">
-        <v>727</v>
+      <c r="B71" s="4">
+        <v>204</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>3</v>
@@ -1393,8 +1304,8 @@
       <c r="A72" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="7">
-        <v>22</v>
+      <c r="B72" s="4">
+        <v>205</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>3</v>
@@ -1404,8 +1315,8 @@
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="7">
-        <v>436</v>
+      <c r="B73" s="4">
+        <v>207</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>3</v>
@@ -1415,8 +1326,8 @@
       <c r="A74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="7">
-        <v>750</v>
+      <c r="B74" s="4">
+        <v>212</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
@@ -1426,8 +1337,8 @@
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="7">
-        <v>930</v>
+      <c r="B75" s="4">
+        <v>213</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>3</v>
@@ -1437,8 +1348,8 @@
       <c r="A76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="7">
-        <v>488</v>
+      <c r="B76" s="4">
+        <v>214</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>3</v>
@@ -1448,8 +1359,8 @@
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="7">
-        <v>293</v>
+      <c r="B77" s="4">
+        <v>216</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>3</v>
@@ -1459,8 +1370,8 @@
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="7">
-        <v>668</v>
+      <c r="B78" s="4">
+        <v>217</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>3</v>
@@ -1470,8 +1381,8 @@
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="7">
-        <v>819</v>
+      <c r="B79" s="4">
+        <v>218</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>3</v>
@@ -1481,8 +1392,8 @@
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="7">
-        <v>144</v>
+      <c r="B80" s="4">
+        <v>220</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
@@ -1492,8 +1403,8 @@
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="7">
-        <v>883</v>
+      <c r="B81" s="4">
+        <v>223</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>3</v>
@@ -1503,8 +1414,8 @@
       <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="7">
-        <v>533</v>
+      <c r="B82" s="4">
+        <v>225</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -1514,8 +1425,8 @@
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="7">
-        <v>954</v>
+      <c r="B83" s="4">
+        <v>228</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>3</v>
@@ -1525,19 +1436,19 @@
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="7">
-        <v>715</v>
+      <c r="B84" s="4">
+        <v>229</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="8">
-        <v>564</v>
+      <c r="B85" s="4">
+        <v>233</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>3</v>
@@ -1547,8 +1458,8 @@
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="6">
-        <v>844</v>
+      <c r="B86" s="4">
+        <v>239</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>3</v>
@@ -1558,8 +1469,8 @@
       <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="7">
-        <v>327</v>
+      <c r="B87" s="4">
+        <v>243</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>3</v>
@@ -1569,8 +1480,8 @@
       <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="7">
-        <v>276</v>
+      <c r="B88" s="4">
+        <v>244</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>3</v>
@@ -1580,8 +1491,8 @@
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="7">
-        <v>777</v>
+      <c r="B89" s="4">
+        <v>247</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>3</v>
@@ -1591,8 +1502,8 @@
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="7">
-        <v>645</v>
+      <c r="B90" s="4">
+        <v>251</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>3</v>
@@ -1602,8 +1513,8 @@
       <c r="A91" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="7">
-        <v>682</v>
+      <c r="B91" s="4">
+        <v>262</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>3</v>
@@ -1613,8 +1524,8 @@
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="7">
-        <v>85</v>
+      <c r="B92" s="4">
+        <v>264</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>3</v>
@@ -1624,8 +1535,8 @@
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="7">
-        <v>602</v>
+      <c r="B93" s="4">
+        <v>271</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>3</v>
@@ -1635,8 +1546,8 @@
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="7">
-        <v>476</v>
+      <c r="B94" s="4">
+        <v>272</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
@@ -1646,8 +1557,8 @@
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="7">
-        <v>774</v>
+      <c r="B95" s="4">
+        <v>275</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>3</v>
@@ -1657,8 +1568,8 @@
       <c r="A96" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="7">
-        <v>584</v>
+      <c r="B96" s="4">
+        <v>276</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>3</v>
@@ -1668,8 +1579,8 @@
       <c r="A97" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="7">
-        <v>239</v>
+      <c r="B97" s="4">
+        <v>277</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>3</v>
@@ -1679,8 +1590,8 @@
       <c r="A98" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="7">
-        <v>784</v>
+      <c r="B98" s="4">
+        <v>278</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>3</v>
@@ -1690,8 +1601,8 @@
       <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="7">
-        <v>779</v>
+      <c r="B99" s="4">
+        <v>279</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>3</v>
@@ -1701,8 +1612,8 @@
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="7">
-        <v>137</v>
+      <c r="B100" s="4">
+        <v>281</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>3</v>
@@ -1712,8 +1623,8 @@
       <c r="A101" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="7">
-        <v>195</v>
+      <c r="B101" s="4">
+        <v>284</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>3</v>
@@ -1723,8 +1634,8 @@
       <c r="A102" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="7">
-        <v>752</v>
+      <c r="B102" s="4">
+        <v>285</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>3</v>
@@ -1734,8 +1645,8 @@
       <c r="A103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="7">
-        <v>898</v>
+      <c r="B103" s="4">
+        <v>286</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>3</v>
@@ -1745,8 +1656,8 @@
       <c r="A104" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="7">
-        <v>845</v>
+      <c r="B104" s="4">
+        <v>287</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>3</v>
@@ -1756,8 +1667,8 @@
       <c r="A105" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="7">
-        <v>962</v>
+      <c r="B105" s="4">
+        <v>288</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>3</v>
@@ -1767,8 +1678,8 @@
       <c r="A106" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="7">
-        <v>781</v>
+      <c r="B106" s="4">
+        <v>289</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>3</v>
@@ -1778,8 +1689,8 @@
       <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="7">
-        <v>247</v>
+      <c r="B107" s="4">
+        <v>292</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>3</v>
@@ -1789,8 +1700,8 @@
       <c r="A108" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="7">
-        <v>955</v>
+      <c r="B108" s="4">
+        <v>293</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>3</v>
@@ -1800,8 +1711,8 @@
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="7">
-        <v>851</v>
+      <c r="B109" s="4">
+        <v>294</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>3</v>
@@ -1811,8 +1722,8 @@
       <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="7">
-        <v>850</v>
+      <c r="B110" s="4">
+        <v>295</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>3</v>
@@ -1822,8 +1733,8 @@
       <c r="A111" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="7">
-        <v>773</v>
+      <c r="B111" s="4">
+        <v>299</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>3</v>
@@ -1833,19 +1744,19 @@
       <c r="A112" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="7">
-        <v>52</v>
+      <c r="B112" s="4">
+        <v>301</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="8">
-        <v>913</v>
+      <c r="B113" s="4">
+        <v>302</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>3</v>
@@ -1855,8 +1766,8 @@
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="6">
-        <v>923</v>
+      <c r="B114" s="4">
+        <v>303</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>3</v>
@@ -1866,8 +1777,8 @@
       <c r="A115" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="7">
-        <v>173</v>
+      <c r="B115" s="4">
+        <v>306</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>3</v>
@@ -1877,8 +1788,8 @@
       <c r="A116" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="7">
-        <v>832</v>
+      <c r="B116" s="4">
+        <v>307</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>3</v>
@@ -1888,8 +1799,8 @@
       <c r="A117" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="7">
-        <v>504</v>
+      <c r="B117" s="4">
+        <v>308</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>3</v>
@@ -1899,8 +1810,8 @@
       <c r="A118" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="7">
-        <v>121</v>
+      <c r="B118" s="4">
+        <v>310</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>3</v>
@@ -1910,8 +1821,8 @@
       <c r="A119" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B119" s="7">
-        <v>786</v>
+      <c r="B119" s="4">
+        <v>312</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>3</v>
@@ -1921,8 +1832,8 @@
       <c r="A120" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B120" s="7">
-        <v>307</v>
+      <c r="B120" s="4">
+        <v>314</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>3</v>
@@ -1932,8 +1843,8 @@
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="7">
-        <v>470</v>
+      <c r="B121" s="4">
+        <v>319</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>3</v>
@@ -1943,8 +1854,8 @@
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="7">
-        <v>116</v>
+      <c r="B122" s="4">
+        <v>320</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>3</v>
@@ -1954,8 +1865,8 @@
       <c r="A123" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="7">
-        <v>787</v>
+      <c r="B123" s="4">
+        <v>324</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>3</v>
@@ -1965,8 +1876,8 @@
       <c r="A124" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="7">
-        <v>864</v>
+      <c r="B124" s="4">
+        <v>327</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>3</v>
@@ -1976,8 +1887,8 @@
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="7">
-        <v>574</v>
+      <c r="B125" s="4">
+        <v>330</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>3</v>
@@ -1987,8 +1898,8 @@
       <c r="A126" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="7">
-        <v>114</v>
+      <c r="B126" s="4">
+        <v>332</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>3</v>
@@ -1998,8 +1909,8 @@
       <c r="A127" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B127" s="7">
-        <v>405</v>
+      <c r="B127" s="4">
+        <v>333</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>3</v>
@@ -2009,8 +1920,8 @@
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B128" s="7">
-        <v>626</v>
+      <c r="B128" s="4">
+        <v>336</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>3</v>
@@ -2020,8 +1931,8 @@
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="7">
-        <v>229</v>
+      <c r="B129" s="4">
+        <v>337</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>3</v>
@@ -2031,8 +1942,8 @@
       <c r="A130" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="7">
-        <v>621</v>
+      <c r="B130" s="4">
+        <v>340</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>3</v>
@@ -2042,8 +1953,8 @@
       <c r="A131" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="7">
-        <v>33</v>
+      <c r="B131" s="4">
+        <v>344</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>3</v>
@@ -2053,8 +1964,8 @@
       <c r="A132" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B132" s="7">
-        <v>443</v>
+      <c r="B132" s="4">
+        <v>348</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>3</v>
@@ -2064,8 +1975,8 @@
       <c r="A133" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B133" s="7">
-        <v>299</v>
+      <c r="B133" s="4">
+        <v>349</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>3</v>
@@ -2075,8 +1986,8 @@
       <c r="A134" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="7">
-        <v>216</v>
+      <c r="B134" s="4">
+        <v>359</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>3</v>
@@ -2086,8 +1997,8 @@
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="7">
-        <v>102</v>
+      <c r="B135" s="4">
+        <v>361</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>3</v>
@@ -2097,8 +2008,8 @@
       <c r="A136" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B136" s="7">
-        <v>888</v>
+      <c r="B136" s="4">
+        <v>362</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>3</v>
@@ -2108,8 +2019,8 @@
       <c r="A137" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B137" s="7">
-        <v>656</v>
+      <c r="B137" s="4">
+        <v>363</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>3</v>
@@ -2119,8 +2030,8 @@
       <c r="A138" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B138" s="7">
-        <v>796</v>
+      <c r="B138" s="4">
+        <v>364</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>3</v>
@@ -2130,8 +2041,8 @@
       <c r="A139" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="7">
-        <v>540</v>
+      <c r="B139" s="4">
+        <v>367</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>3</v>
@@ -2141,19 +2052,19 @@
       <c r="A140" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B140" s="7">
-        <v>324</v>
+      <c r="B140" s="4">
+        <v>370</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B141" s="8">
-        <v>894</v>
+      <c r="B141" s="4">
+        <v>371</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>3</v>
@@ -2163,8 +2074,8 @@
       <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="6">
-        <v>793</v>
+      <c r="B142" s="4">
+        <v>372</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>3</v>
@@ -2174,8 +2085,8 @@
       <c r="A143" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B143" s="7">
-        <v>548</v>
+      <c r="B143" s="4">
+        <v>376</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>3</v>
@@ -2185,8 +2096,8 @@
       <c r="A144" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B144" s="7">
-        <v>264</v>
+      <c r="B144" s="4">
+        <v>377</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>3</v>
@@ -2196,8 +2107,8 @@
       <c r="A145" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B145" s="7">
-        <v>362</v>
+      <c r="B145" s="4">
+        <v>383</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>3</v>
@@ -2207,8 +2118,8 @@
       <c r="A146" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B146" s="7">
-        <v>837</v>
+      <c r="B146" s="4">
+        <v>385</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>3</v>
@@ -2218,8 +2129,8 @@
       <c r="A147" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B147" s="7">
-        <v>110</v>
+      <c r="B147" s="4">
+        <v>388</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>3</v>
@@ -2229,8 +2140,8 @@
       <c r="A148" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B148" s="7">
-        <v>148</v>
+      <c r="B148" s="4">
+        <v>390</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>3</v>
@@ -2240,8 +2151,8 @@
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B149" s="7">
-        <v>214</v>
+      <c r="B149" s="4">
+        <v>391</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>3</v>
@@ -2251,8 +2162,8 @@
       <c r="A150" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="7">
-        <v>217</v>
+      <c r="B150" s="4">
+        <v>393</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>3</v>
@@ -2262,8 +2173,8 @@
       <c r="A151" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B151" s="7">
-        <v>800</v>
+      <c r="B151" s="4">
+        <v>394</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>3</v>
@@ -2273,8 +2184,8 @@
       <c r="A152" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B152" s="7">
-        <v>966</v>
+      <c r="B152" s="4">
+        <v>396</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>3</v>
@@ -2284,8 +2195,8 @@
       <c r="A153" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B153" s="7">
-        <v>477</v>
+      <c r="B153" s="4">
+        <v>398</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>3</v>
@@ -2295,8 +2206,8 @@
       <c r="A154" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B154" s="7">
-        <v>192</v>
+      <c r="B154" s="4">
+        <v>401</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>3</v>
@@ -2306,8 +2217,8 @@
       <c r="A155" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B155" s="7">
-        <v>82</v>
+      <c r="B155" s="4">
+        <v>405</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>3</v>
@@ -2317,8 +2228,8 @@
       <c r="A156" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B156" s="7">
-        <v>39</v>
+      <c r="B156" s="4">
+        <v>406</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>3</v>
@@ -2328,8 +2239,8 @@
       <c r="A157" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B157" s="7">
-        <v>803</v>
+      <c r="B157" s="4">
+        <v>413</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>3</v>
@@ -2339,8 +2250,8 @@
       <c r="A158" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B158" s="7">
-        <v>372</v>
+      <c r="B158" s="4">
+        <v>415</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>3</v>
@@ -2350,8 +2261,8 @@
       <c r="A159" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B159" s="7">
-        <v>474</v>
+      <c r="B159" s="4">
+        <v>417</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>3</v>
@@ -2361,8 +2272,8 @@
       <c r="A160" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B160" s="7">
-        <v>332</v>
+      <c r="B160" s="4">
+        <v>421</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>3</v>
@@ -2372,8 +2283,8 @@
       <c r="A161" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B161" s="7">
-        <v>517</v>
+      <c r="B161" s="4">
+        <v>424</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>3</v>
@@ -2383,8 +2294,8 @@
       <c r="A162" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B162" s="7">
-        <v>995</v>
+      <c r="B162" s="4">
+        <v>426</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>3</v>
@@ -2394,8 +2305,8 @@
       <c r="A163" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B163" s="7">
-        <v>113</v>
+      <c r="B163" s="4">
+        <v>429</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>3</v>
@@ -2405,8 +2316,8 @@
       <c r="A164" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B164" s="7">
-        <v>390</v>
+      <c r="B164" s="4">
+        <v>433</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>3</v>
@@ -2416,8 +2327,8 @@
       <c r="A165" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B165" s="7">
-        <v>577</v>
+      <c r="B165" s="4">
+        <v>436</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>3</v>
@@ -2427,8 +2338,8 @@
       <c r="A166" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B166" s="7">
-        <v>205</v>
+      <c r="B166" s="4">
+        <v>438</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>3</v>
@@ -2438,8 +2349,8 @@
       <c r="A167" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B167" s="7">
-        <v>826</v>
+      <c r="B167" s="4">
+        <v>443</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>3</v>
@@ -2449,19 +2360,19 @@
       <c r="A168" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B168" s="7">
-        <v>176</v>
+      <c r="B168" s="4">
+        <v>445</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B169" s="8">
-        <v>68</v>
+      <c r="B169" s="4">
+        <v>446</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>3</v>
@@ -2471,8 +2382,8 @@
       <c r="A170" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B170" s="6">
-        <v>272</v>
+      <c r="B170" s="4">
+        <v>447</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>3</v>
@@ -2482,8 +2393,8 @@
       <c r="A171" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="7">
-        <v>482</v>
+      <c r="B171" s="4">
+        <v>449</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>3</v>
@@ -2493,8 +2404,8 @@
       <c r="A172" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B172" s="7">
-        <v>924</v>
+      <c r="B172" s="4">
+        <v>450</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>3</v>
@@ -2504,8 +2415,8 @@
       <c r="A173" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B173" s="7">
-        <v>59</v>
+      <c r="B173" s="4">
+        <v>451</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>3</v>
@@ -2515,8 +2426,8 @@
       <c r="A174" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B174" s="7">
-        <v>220</v>
+      <c r="B174" s="4">
+        <v>462</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>3</v>
@@ -2526,8 +2437,8 @@
       <c r="A175" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B175" s="7">
-        <v>132</v>
+      <c r="B175" s="4">
+        <v>464</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>3</v>
@@ -2537,8 +2448,8 @@
       <c r="A176" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B176" s="7">
-        <v>364</v>
+      <c r="B176" s="4">
+        <v>466</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>3</v>
@@ -2548,8 +2459,8 @@
       <c r="A177" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B177" s="7">
-        <v>108</v>
+      <c r="B177" s="4">
+        <v>467</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>3</v>
@@ -2559,8 +2470,8 @@
       <c r="A178" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B178" s="7">
-        <v>567</v>
+      <c r="B178" s="4">
+        <v>469</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>3</v>
@@ -2570,8 +2481,8 @@
       <c r="A179" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B179" s="7">
-        <v>363</v>
+      <c r="B179" s="4">
+        <v>470</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>3</v>
@@ -2581,8 +2492,8 @@
       <c r="A180" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B180" s="7">
-        <v>814</v>
+      <c r="B180" s="4">
+        <v>472</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>3</v>
@@ -2592,8 +2503,8 @@
       <c r="A181" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B181" s="7">
-        <v>140</v>
+      <c r="B181" s="4">
+        <v>473</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>3</v>
@@ -2603,8 +2514,8 @@
       <c r="A182" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B182" s="7">
-        <v>990</v>
+      <c r="B182" s="4">
+        <v>474</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>3</v>
@@ -2614,8 +2525,8 @@
       <c r="A183" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B183" s="7">
-        <v>233</v>
+      <c r="B183" s="4">
+        <v>476</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>3</v>
@@ -2625,8 +2536,8 @@
       <c r="A184" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B184" s="7">
-        <v>560</v>
+      <c r="B184" s="4">
+        <v>477</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>3</v>
@@ -2636,8 +2547,8 @@
       <c r="A185" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B185" s="7">
-        <v>120</v>
+      <c r="B185" s="4">
+        <v>478</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>3</v>
@@ -2647,8 +2558,8 @@
       <c r="A186" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B186" s="7">
-        <v>191</v>
+      <c r="B186" s="4">
+        <v>479</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>3</v>
@@ -2658,8 +2569,8 @@
       <c r="A187" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B187" s="7">
-        <v>866</v>
+      <c r="B187" s="4">
+        <v>482</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>3</v>
@@ -2669,8 +2580,8 @@
       <c r="A188" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B188" s="7">
-        <v>675</v>
+      <c r="B188" s="4">
+        <v>486</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>3</v>
@@ -2680,8 +2591,8 @@
       <c r="A189" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B189" s="7">
-        <v>154</v>
+      <c r="B189" s="4">
+        <v>487</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>3</v>
@@ -2691,8 +2602,8 @@
       <c r="A190" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B190" s="7">
-        <v>909</v>
+      <c r="B190" s="4">
+        <v>488</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>3</v>
@@ -2702,8 +2613,8 @@
       <c r="A191" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B191" s="7">
-        <v>117</v>
+      <c r="B191" s="4">
+        <v>493</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>3</v>
@@ -2713,8 +2624,8 @@
       <c r="A192" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="7">
-        <v>398</v>
+      <c r="B192" s="4">
+        <v>503</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>3</v>
@@ -2724,8 +2635,8 @@
       <c r="A193" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B193" s="7">
-        <v>473</v>
+      <c r="B193" s="4">
+        <v>504</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>3</v>
@@ -2735,8 +2646,8 @@
       <c r="A194" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B194" s="7">
-        <v>275</v>
+      <c r="B194" s="4">
+        <v>505</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>3</v>
@@ -2746,19 +2657,19 @@
       <c r="A195" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B195" s="7">
-        <v>756</v>
+      <c r="B195" s="4">
+        <v>506</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B196" s="8">
-        <v>164</v>
+      <c r="B196" s="4">
+        <v>509</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>3</v>
@@ -2768,8 +2679,8 @@
       <c r="A197" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B197" s="6">
-        <v>308</v>
+      <c r="B197" s="4">
+        <v>512</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>3</v>
@@ -2779,8 +2690,8 @@
       <c r="A198" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B198" s="7">
-        <v>527</v>
+      <c r="B198" s="4">
+        <v>517</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>3</v>
@@ -2790,8 +2701,8 @@
       <c r="A199" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B199" s="7">
-        <v>319</v>
+      <c r="B199" s="4">
+        <v>519</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>3</v>
@@ -2801,8 +2712,8 @@
       <c r="A200" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B200" s="7">
-        <v>579</v>
+      <c r="B200" s="4">
+        <v>520</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>3</v>
@@ -2812,8 +2723,8 @@
       <c r="A201" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B201" s="7">
-        <v>840</v>
+      <c r="B201" s="4">
+        <v>523</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>3</v>
@@ -2823,8 +2734,8 @@
       <c r="A202" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B202" s="7">
-        <v>97</v>
+      <c r="B202" s="4">
+        <v>525</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>3</v>
@@ -2834,8 +2745,8 @@
       <c r="A203" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B203" s="7">
-        <v>709</v>
+      <c r="B203" s="4">
+        <v>527</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>3</v>
@@ -2845,8 +2756,8 @@
       <c r="A204" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B204" s="7">
-        <v>745</v>
+      <c r="B204" s="4">
+        <v>530</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>3</v>
@@ -2856,8 +2767,8 @@
       <c r="A205" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B205" s="7">
-        <v>969</v>
+      <c r="B205" s="4">
+        <v>531</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>3</v>
@@ -2867,8 +2778,8 @@
       <c r="A206" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B206" s="7">
-        <v>801</v>
+      <c r="B206" s="4">
+        <v>533</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>3</v>
@@ -2878,7 +2789,7 @@
       <c r="A207" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B207" s="7">
+      <c r="B207" s="4">
         <v>535</v>
       </c>
       <c r="C207" s="2" t="s">
@@ -2889,8 +2800,8 @@
       <c r="A208" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B208" s="7">
-        <v>918</v>
+      <c r="B208" s="4">
+        <v>538</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>3</v>
@@ -2900,8 +2811,8 @@
       <c r="A209" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B209" s="7">
-        <v>213</v>
+      <c r="B209" s="4">
+        <v>540</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>3</v>
@@ -2911,8 +2822,8 @@
       <c r="A210" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B210" s="7">
-        <v>891</v>
+      <c r="B210" s="4">
+        <v>548</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>3</v>
@@ -2922,8 +2833,8 @@
       <c r="A211" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B211" s="7">
-        <v>344</v>
+      <c r="B211" s="4">
+        <v>550</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>3</v>
@@ -2933,8 +2844,8 @@
       <c r="A212" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B212" s="7">
-        <v>286</v>
+      <c r="B212" s="4">
+        <v>559</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>3</v>
@@ -2944,8 +2855,8 @@
       <c r="A213" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B213" s="7">
-        <v>660</v>
+      <c r="B213" s="4">
+        <v>560</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>3</v>
@@ -2955,8 +2866,8 @@
       <c r="A214" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B214" s="7">
-        <v>75</v>
+      <c r="B214" s="4">
+        <v>564</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>3</v>
@@ -2966,8 +2877,8 @@
       <c r="A215" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B215" s="7">
-        <v>361</v>
+      <c r="B215" s="4">
+        <v>565</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>3</v>
@@ -2977,8 +2888,8 @@
       <c r="A216" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B216" s="7">
-        <v>769</v>
+      <c r="B216" s="4">
+        <v>567</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>3</v>
@@ -2988,8 +2899,8 @@
       <c r="A217" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B217" s="7">
-        <v>212</v>
+      <c r="B217" s="4">
+        <v>572</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>3</v>
@@ -2999,8 +2910,8 @@
       <c r="A218" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B218" s="7">
-        <v>925</v>
+      <c r="B218" s="4">
+        <v>574</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>3</v>
@@ -3010,8 +2921,8 @@
       <c r="A219" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B219" s="7">
-        <v>467</v>
+      <c r="B219" s="4">
+        <v>577</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>3</v>
@@ -3021,8 +2932,8 @@
       <c r="A220" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B220" s="7">
-        <v>123</v>
+      <c r="B220" s="4">
+        <v>579</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>3</v>
@@ -3032,8 +2943,8 @@
       <c r="A221" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="7">
-        <v>994</v>
+      <c r="B221" s="4">
+        <v>580</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>3</v>
@@ -3043,8 +2954,8 @@
       <c r="A222" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B222" s="7">
-        <v>736</v>
+      <c r="B222" s="4">
+        <v>583</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>3</v>
@@ -3054,19 +2965,19 @@
       <c r="A223" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B223" s="7">
-        <v>294</v>
+      <c r="B223" s="4">
+        <v>584</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B224" s="8">
-        <v>115</v>
+      <c r="B224" s="4">
+        <v>587</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>3</v>
@@ -3076,8 +2987,8 @@
       <c r="A225" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B225" s="6">
-        <v>385</v>
+      <c r="B225" s="4">
+        <v>588</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>3</v>
@@ -3087,8 +2998,8 @@
       <c r="A226" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B226" s="7">
-        <v>303</v>
+      <c r="B226" s="4">
+        <v>592</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>3</v>
@@ -3098,8 +3009,8 @@
       <c r="A227" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B227" s="7">
-        <v>746</v>
+      <c r="B227" s="4">
+        <v>593</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>3</v>
@@ -3109,8 +3020,8 @@
       <c r="A228" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B228" s="7">
-        <v>588</v>
+      <c r="B228" s="4">
+        <v>595</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>3</v>
@@ -3120,8 +3031,8 @@
       <c r="A229" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B229" s="7">
-        <v>262</v>
+      <c r="B229" s="4">
+        <v>691</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>3</v>
@@ -3131,8 +3042,8 @@
       <c r="A230" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B230" s="7">
-        <v>943</v>
+      <c r="B230" s="4">
+        <v>690</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>3</v>
@@ -3142,8 +3053,8 @@
       <c r="A231" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B231" s="7">
-        <v>310</v>
+      <c r="B231" s="4">
+        <v>686</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>3</v>
@@ -3153,8 +3064,8 @@
       <c r="A232" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B232" s="7">
-        <v>306</v>
+      <c r="B232" s="4">
+        <v>692</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>3</v>
@@ -3164,8 +3075,8 @@
       <c r="A233" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B233" s="7">
-        <v>187</v>
+      <c r="B233" s="4">
+        <v>685</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>3</v>
@@ -3175,8 +3086,8 @@
       <c r="A234" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B234" s="7">
-        <v>47</v>
+      <c r="B234" s="4">
+        <v>644</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>3</v>
@@ -3186,8 +3097,8 @@
       <c r="A235" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B235" s="7">
-        <v>722</v>
+      <c r="B235" s="4">
+        <v>670</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>3</v>
@@ -3197,8 +3108,8 @@
       <c r="A236" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B236" s="7">
-        <v>393</v>
+      <c r="B236" s="4">
+        <v>668</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>3</v>
@@ -3208,8 +3119,8 @@
       <c r="A237" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="7">
-        <v>104</v>
+      <c r="B237" s="4">
+        <v>660</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>3</v>
@@ -3219,8 +3130,8 @@
       <c r="A238" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B238" s="7">
-        <v>87</v>
+      <c r="B238" s="4">
+        <v>656</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>3</v>
@@ -3230,8 +3141,8 @@
       <c r="A239" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B239" s="7">
-        <v>519</v>
+      <c r="B239" s="4">
+        <v>655</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>3</v>
@@ -3241,8 +3152,8 @@
       <c r="A240" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B240" s="7">
-        <v>106</v>
+      <c r="B240" s="4">
+        <v>682</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>3</v>
@@ -3252,8 +3163,8 @@
       <c r="A241" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B241" s="7">
-        <v>503</v>
+      <c r="B241" s="4">
+        <v>654</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>3</v>
@@ -3263,8 +3174,8 @@
       <c r="A242" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B242" s="7">
-        <v>852</v>
+      <c r="B242" s="4">
+        <v>653</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>3</v>
@@ -3274,7 +3185,7 @@
       <c r="A243" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B243" s="7">
+      <c r="B243" s="4">
         <v>646</v>
       </c>
       <c r="C243" s="2" t="s">
@@ -3285,8 +3196,8 @@
       <c r="A244" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B244" s="7">
-        <v>761</v>
+      <c r="B244" s="4">
+        <v>645</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>3</v>
@@ -3296,8 +3207,8 @@
       <c r="A245" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B245" s="7">
-        <v>84</v>
+      <c r="B245" s="4">
+        <v>601</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>3</v>
@@ -3307,8 +3218,8 @@
       <c r="A246" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B246" s="7">
-        <v>450</v>
+      <c r="B246" s="4">
+        <v>696</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>3</v>
@@ -3318,8 +3229,8 @@
       <c r="A247" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B247" s="7">
-        <v>396</v>
+      <c r="B247" s="4">
+        <v>602</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>3</v>
@@ -3329,8 +3240,8 @@
       <c r="A248" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B248" s="7">
-        <v>565</v>
+      <c r="B248" s="4">
+        <v>606</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>3</v>
@@ -3340,8 +3251,8 @@
       <c r="A249" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B249" s="7">
-        <v>58</v>
+      <c r="B249" s="4">
+        <v>613</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>3</v>
@@ -3351,8 +3262,8 @@
       <c r="A250" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B250" s="7">
-        <v>447</v>
+      <c r="B250" s="4">
+        <v>615</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>3</v>
@@ -3362,19 +3273,19 @@
       <c r="A251" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B251" s="7">
-        <v>278</v>
+      <c r="B251" s="4">
+        <v>616</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B252" s="8">
-        <v>401</v>
+      <c r="B252" s="4">
+        <v>619</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>3</v>
@@ -3384,8 +3295,8 @@
       <c r="A253" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B253" s="6">
-        <v>301</v>
+      <c r="B253" s="4">
+        <v>621</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>3</v>
@@ -3395,8 +3306,8 @@
       <c r="A254" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B254" s="7">
-        <v>988</v>
+      <c r="B254" s="4">
+        <v>622</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>3</v>
@@ -3406,8 +3317,8 @@
       <c r="A255" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B255" s="7">
-        <v>196</v>
+      <c r="B255" s="4">
+        <v>626</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>3</v>
@@ -3417,8 +3328,8 @@
       <c r="A256" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B256" s="7">
-        <v>690</v>
+      <c r="B256" s="4">
+        <v>628</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>3</v>
@@ -3428,8 +3339,8 @@
       <c r="A257" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B257" s="7">
-        <v>679</v>
+      <c r="B257" s="4">
+        <v>634</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>3</v>
@@ -3439,8 +3350,8 @@
       <c r="A258" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B258" s="7">
-        <v>601</v>
+      <c r="B258" s="4">
+        <v>643</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>3</v>
@@ -3450,8 +3361,8 @@
       <c r="A259" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B259" s="7">
-        <v>159</v>
+      <c r="B259" s="4">
+        <v>672</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>3</v>
@@ -3461,8 +3372,8 @@
       <c r="A260" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B260" s="7">
-        <v>279</v>
+      <c r="B260" s="4">
+        <v>675</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>3</v>
@@ -3472,8 +3383,8 @@
       <c r="A261" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B261" s="7">
-        <v>853</v>
+      <c r="B261" s="4">
+        <v>676</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>3</v>
@@ -3483,8 +3394,8 @@
       <c r="A262" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B262" s="7">
-        <v>330</v>
+      <c r="B262" s="4">
+        <v>679</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>3</v>
@@ -3494,8 +3405,8 @@
       <c r="A263" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B263" s="7">
-        <v>606</v>
+      <c r="B263" s="4">
+        <v>750</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>3</v>
@@ -3505,8 +3416,8 @@
       <c r="A264" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B264" s="7">
-        <v>462</v>
+      <c r="B264" s="4">
+        <v>747</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>3</v>
@@ -3516,8 +3427,8 @@
       <c r="A265" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B265" s="7">
-        <v>394</v>
+      <c r="B265" s="4">
+        <v>748</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>3</v>
@@ -3527,8 +3438,8 @@
       <c r="A266" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B266" s="7">
-        <v>487</v>
+      <c r="B266" s="4">
+        <v>752</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>3</v>
@@ -3538,8 +3449,8 @@
       <c r="A267" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B267" s="7">
-        <v>223</v>
+      <c r="B267" s="4">
+        <v>734</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>3</v>
@@ -3549,8 +3460,8 @@
       <c r="A268" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B268" s="7">
-        <v>946</v>
+      <c r="B268" s="4">
+        <v>727</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>3</v>
@@ -3560,8 +3471,8 @@
       <c r="A269" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B269" s="7">
-        <v>157</v>
+      <c r="B269" s="4">
+        <v>722</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>3</v>
@@ -3571,8 +3482,8 @@
       <c r="A270" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B270" s="7">
-        <v>877</v>
+      <c r="B270" s="4">
+        <v>719</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>3</v>
@@ -3582,8 +3493,8 @@
       <c r="A271" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B271" s="7">
-        <v>181</v>
+      <c r="B271" s="4">
+        <v>715</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>3</v>
@@ -3593,8 +3504,8 @@
       <c r="A272" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B272" s="7">
-        <v>797</v>
+      <c r="B272" s="4">
+        <v>763</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>3</v>
@@ -3604,8 +3515,8 @@
       <c r="A273" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B273" s="7">
-        <v>161</v>
+      <c r="B273" s="4">
+        <v>776</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>3</v>
@@ -3615,8 +3526,8 @@
       <c r="A274" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B274" s="7">
-        <v>763</v>
+      <c r="B274" s="4">
+        <v>777</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>3</v>
@@ -3626,8 +3537,8 @@
       <c r="A275" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B275" s="7">
-        <v>281</v>
+      <c r="B275" s="4">
+        <v>779</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>3</v>
@@ -3637,8 +3548,8 @@
       <c r="A276" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B276" s="7">
-        <v>760</v>
+      <c r="B276" s="4">
+        <v>781</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>3</v>
@@ -3648,8 +3559,8 @@
       <c r="A277" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B277" s="7">
-        <v>377</v>
+      <c r="B277" s="4">
+        <v>784</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>3</v>
@@ -3659,8 +3570,8 @@
       <c r="A278" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B278" s="7">
-        <v>644</v>
+      <c r="B278" s="4">
+        <v>746</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>3</v>
@@ -3670,19 +3581,19 @@
       <c r="A279" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B279" s="7">
-        <v>433</v>
+      <c r="B279" s="4">
+        <v>797</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B280" s="8">
-        <v>628</v>
+      <c r="B280" s="4">
+        <v>796</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>3</v>
@@ -3692,8 +3603,8 @@
       <c r="A281" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B281" s="6">
-        <v>243</v>
+      <c r="B281" s="4">
+        <v>793</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>3</v>
@@ -3703,8 +3614,8 @@
       <c r="A282" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B282" s="7">
-        <v>472</v>
+      <c r="B282" s="4">
+        <v>792</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>3</v>
@@ -3714,8 +3625,8 @@
       <c r="A283" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B283" s="7">
-        <v>964</v>
+      <c r="B283" s="4">
+        <v>787</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>3</v>
@@ -3725,8 +3636,8 @@
       <c r="A284" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B284" s="7">
-        <v>967</v>
+      <c r="B284" s="4">
+        <v>799</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>3</v>
@@ -3736,8 +3647,8 @@
       <c r="A285" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B285" s="7">
-        <v>904</v>
+      <c r="B285" s="4">
+        <v>773</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>3</v>
@@ -3747,8 +3658,8 @@
       <c r="A286" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B286" s="7">
-        <v>92</v>
+      <c r="B286" s="4">
+        <v>769</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>3</v>
@@ -3758,8 +3669,8 @@
       <c r="A287" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B287" s="7">
-        <v>105</v>
+      <c r="B287" s="4">
+        <v>770</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>3</v>
@@ -3769,8 +3680,8 @@
       <c r="A288" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B288" s="7">
-        <v>512</v>
+      <c r="B288" s="4">
+        <v>765</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>3</v>
@@ -3780,8 +3691,8 @@
       <c r="A289" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B289" s="7">
-        <v>530</v>
+      <c r="B289" s="4">
+        <v>774</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>3</v>
@@ -3791,8 +3702,8 @@
       <c r="A290" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B290" s="7">
-        <v>615</v>
+      <c r="B290" s="4">
+        <v>760</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>3</v>
@@ -3802,8 +3713,8 @@
       <c r="A291" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B291" s="7">
-        <v>340</v>
+      <c r="B291" s="4">
+        <v>730</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>3</v>
@@ -3813,8 +3724,8 @@
       <c r="A292" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B292" s="7">
-        <v>509</v>
+      <c r="B292" s="4">
+        <v>709</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>3</v>
@@ -3824,8 +3735,8 @@
       <c r="A293" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B293" s="7">
-        <v>828</v>
+      <c r="B293" s="4">
+        <v>745</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>3</v>
@@ -3835,8 +3746,8 @@
       <c r="A294" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B294" s="7">
-        <v>692</v>
+      <c r="B294" s="4">
+        <v>756</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>3</v>
@@ -3846,8 +3757,8 @@
       <c r="A295" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B295" s="7">
-        <v>391</v>
+      <c r="B295" s="4">
+        <v>735</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>3</v>
@@ -3857,8 +3768,8 @@
       <c r="A296" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B296" s="7">
-        <v>643</v>
+      <c r="B296" s="4">
+        <v>736</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>3</v>
@@ -3868,8 +3779,8 @@
       <c r="A297" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B297" s="7">
-        <v>183</v>
+      <c r="B297" s="4">
+        <v>738</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>3</v>
@@ -3879,8 +3790,8 @@
       <c r="A298" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B298" s="7">
-        <v>370</v>
+      <c r="B298" s="4">
+        <v>742</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>3</v>
@@ -3890,8 +3801,8 @@
       <c r="A299" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B299" s="7">
-        <v>719</v>
+      <c r="B299" s="4">
+        <v>744</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>3</v>
@@ -3901,8 +3812,8 @@
       <c r="A300" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B300" s="7">
-        <v>421</v>
+      <c r="B300" s="4">
+        <v>778</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>3</v>
@@ -3912,8 +3823,8 @@
       <c r="A301" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B301" s="7">
-        <v>583</v>
+      <c r="B301" s="4">
+        <v>772</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>3</v>
@@ -3923,8 +3834,8 @@
       <c r="A302" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B302" s="7">
-        <v>251</v>
+      <c r="B302" s="4">
+        <v>786</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>3</v>
@@ -3934,8 +3845,8 @@
       <c r="A303" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B303" s="7">
-        <v>593</v>
+      <c r="B303" s="4">
+        <v>707</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>3</v>
@@ -3945,8 +3856,8 @@
       <c r="A304" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B304" s="7">
-        <v>486</v>
+      <c r="B304" s="4">
+        <v>704</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>3</v>
@@ -3956,8 +3867,8 @@
       <c r="A305" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B305" s="7">
-        <v>333</v>
+      <c r="B305" s="4">
+        <v>758</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>3</v>
@@ -3967,19 +3878,19 @@
       <c r="A306" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B306" s="7">
-        <v>903</v>
+      <c r="B306" s="4">
+        <v>761</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B307" s="8">
-        <v>479</v>
+      <c r="B307" s="4">
+        <v>762</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>3</v>
@@ -3989,8 +3900,8 @@
       <c r="A308" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B308" s="6">
-        <v>429</v>
+      <c r="B308" s="4">
+        <v>898</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>3</v>
@@ -4000,8 +3911,8 @@
       <c r="A309" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B309" s="7">
-        <v>60</v>
+      <c r="B309" s="4">
+        <v>839</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>3</v>
@@ -4011,8 +3922,8 @@
       <c r="A310" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B310" s="7">
-        <v>772</v>
+      <c r="B310" s="4">
+        <v>882</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>3</v>
@@ -4022,8 +3933,8 @@
       <c r="A311" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B311" s="7">
-        <v>277</v>
+      <c r="B311" s="4">
+        <v>878</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>3</v>
@@ -4033,8 +3944,8 @@
       <c r="A312" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B312" s="7">
-        <v>336</v>
+      <c r="B312" s="4">
+        <v>875</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>3</v>
@@ -4044,8 +3955,8 @@
       <c r="A313" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B313" s="7">
-        <v>413</v>
+      <c r="B313" s="4">
+        <v>877</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>3</v>
@@ -4055,8 +3966,8 @@
       <c r="A314" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B314" s="7">
-        <v>56</v>
+      <c r="B314" s="4">
+        <v>810</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>3</v>
@@ -4066,8 +3977,8 @@
       <c r="A315" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B315" s="7">
-        <v>167</v>
+      <c r="B315" s="4">
+        <v>829</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>3</v>
@@ -4077,8 +3988,8 @@
       <c r="A316" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B316" s="7">
-        <v>367</v>
+      <c r="B316" s="4">
+        <v>828</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>3</v>
@@ -4088,8 +3999,8 @@
       <c r="A317" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B317" s="7">
-        <v>747</v>
+      <c r="B317" s="4">
+        <v>826</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>3</v>
@@ -4099,8 +4010,8 @@
       <c r="A318" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B318" s="7">
-        <v>383</v>
+      <c r="B318" s="4">
+        <v>819</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>3</v>
@@ -4110,8 +4021,8 @@
       <c r="A319" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B319" s="7">
-        <v>49</v>
+      <c r="B319" s="4">
+        <v>814</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>3</v>
@@ -4121,8 +4032,8 @@
       <c r="A320" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B320" s="7">
-        <v>289</v>
+      <c r="B320" s="4">
+        <v>870</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>3</v>
@@ -4132,8 +4043,8 @@
       <c r="A321" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B321" s="7">
-        <v>24</v>
+      <c r="B321" s="4">
+        <v>803</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>3</v>
@@ -4143,8 +4054,8 @@
       <c r="A322" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B322" s="7">
-        <v>839</v>
+      <c r="B322" s="4">
+        <v>801</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>3</v>
@@ -4154,8 +4065,8 @@
       <c r="A323" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B323" s="7">
-        <v>830</v>
+      <c r="B323" s="4">
+        <v>800</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>3</v>
@@ -4165,8 +4076,8 @@
       <c r="A324" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B324" s="7">
-        <v>738</v>
+      <c r="B324" s="4">
+        <v>838</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>3</v>
@@ -4176,8 +4087,8 @@
       <c r="A325" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B325" s="7">
-        <v>86</v>
+      <c r="B325" s="4">
+        <v>837</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>3</v>
@@ -4187,8 +4098,8 @@
       <c r="A326" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B326" s="7">
-        <v>27</v>
+      <c r="B326" s="4">
+        <v>833</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>3</v>
@@ -4198,8 +4109,8 @@
       <c r="A327" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B327" s="7">
-        <v>538</v>
+      <c r="B327" s="4">
+        <v>830</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>3</v>
@@ -4209,8 +4120,8 @@
       <c r="A328" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B328" s="7">
-        <v>972</v>
+      <c r="B328" s="4">
+        <v>832</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>3</v>
@@ -4220,8 +4131,8 @@
       <c r="A329" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B329" s="7">
-        <v>882</v>
+      <c r="B329" s="4">
+        <v>840</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>3</v>
@@ -4231,8 +4142,8 @@
       <c r="A330" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B330" s="7">
-        <v>523</v>
+      <c r="B330" s="4">
+        <v>842</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>3</v>
@@ -4242,8 +4153,8 @@
       <c r="A331" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B331" s="7">
-        <v>911</v>
+      <c r="B331" s="4">
+        <v>843</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>3</v>
@@ -4253,8 +4164,8 @@
       <c r="A332" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B332" s="7">
-        <v>55</v>
+      <c r="B332" s="4">
+        <v>895</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>3</v>
@@ -4264,8 +4175,8 @@
       <c r="A333" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B333" s="7">
-        <v>691</v>
+      <c r="B333" s="4">
+        <v>844</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>3</v>
@@ -4275,19 +4186,19 @@
       <c r="A334" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B334" s="7">
-        <v>506</v>
+      <c r="B334" s="4">
+        <v>883</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B335" s="8">
-        <v>770</v>
+      <c r="B335" s="4">
+        <v>888</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>3</v>
@@ -4297,8 +4208,8 @@
       <c r="A336" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B336" s="6">
-        <v>735</v>
+      <c r="B336" s="4">
+        <v>890</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>3</v>
@@ -4308,8 +4219,8 @@
       <c r="A337" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B337" s="7">
-        <v>320</v>
+      <c r="B337" s="4">
+        <v>891</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>3</v>
@@ -4319,8 +4230,8 @@
       <c r="A338" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B338" s="7">
-        <v>292</v>
+      <c r="B338" s="4">
+        <v>894</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>3</v>
@@ -4330,8 +4241,8 @@
       <c r="A339" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B339" s="7">
-        <v>655</v>
+      <c r="B339" s="4">
+        <v>866</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>3</v>
@@ -4341,8 +4252,8 @@
       <c r="A340" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B340" s="7">
-        <v>388</v>
+      <c r="B340" s="4">
+        <v>864</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>3</v>
@@ -4352,8 +4263,8 @@
       <c r="A341" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B341" s="7">
-        <v>634</v>
+      <c r="B341" s="4">
+        <v>862</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>3</v>
@@ -4363,8 +4274,8 @@
       <c r="A342" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B342" s="7">
-        <v>670</v>
+      <c r="B342" s="4">
+        <v>856</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>3</v>
@@ -4374,8 +4285,8 @@
       <c r="A343" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B343" s="7">
-        <v>417</v>
+      <c r="B343" s="4">
+        <v>853</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>3</v>
@@ -4385,8 +4296,8 @@
       <c r="A344" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B344" s="7">
-        <v>937</v>
+      <c r="B344" s="4">
+        <v>852</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>3</v>
@@ -4396,8 +4307,8 @@
       <c r="A345" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B345" s="7">
-        <v>178</v>
+      <c r="B345" s="4">
+        <v>845</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>3</v>
@@ -4407,8 +4318,8 @@
       <c r="A346" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B346" s="7">
-        <v>965</v>
+      <c r="B346" s="4">
+        <v>849</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>3</v>
@@ -4418,8 +4329,8 @@
       <c r="A347" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B347" s="7">
-        <v>445</v>
+      <c r="B347" s="4">
+        <v>850</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>3</v>
@@ -4429,8 +4340,8 @@
       <c r="A348" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B348" s="7">
-        <v>505</v>
+      <c r="B348" s="4">
+        <v>851</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>3</v>
@@ -4440,8 +4351,8 @@
       <c r="A349" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B349" s="7">
-        <v>225</v>
+      <c r="B349" s="4">
+        <v>994</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>3</v>
@@ -4451,8 +4362,8 @@
       <c r="A350" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B350" s="7">
-        <v>696</v>
+      <c r="B350" s="4">
+        <v>993</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>3</v>
@@ -4462,8 +4373,8 @@
       <c r="A351" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B351" s="7">
-        <v>993</v>
+      <c r="B351" s="4">
+        <v>990</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>3</v>
@@ -4473,8 +4384,8 @@
       <c r="A352" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B352" s="7">
-        <v>406</v>
+      <c r="B352" s="4">
+        <v>992</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>3</v>
@@ -4484,8 +4395,8 @@
       <c r="A353" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B353" s="7">
-        <v>520</v>
+      <c r="B353" s="4">
+        <v>989</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>3</v>
@@ -4495,8 +4406,8 @@
       <c r="A354" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B354" s="7">
-        <v>426</v>
+      <c r="B354" s="4">
+        <v>995</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>3</v>
@@ -4506,8 +4417,8 @@
       <c r="A355" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B355" s="7">
-        <v>349</v>
+      <c r="B355" s="4">
+        <v>988</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>3</v>
@@ -4517,8 +4428,8 @@
       <c r="A356" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B356" s="7">
-        <v>952</v>
+      <c r="B356" s="4">
+        <v>983</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>3</v>
@@ -4528,8 +4439,8 @@
       <c r="A357" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B357" s="7">
-        <v>493</v>
+      <c r="B357" s="4">
+        <v>974</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>3</v>
@@ -4539,8 +4450,8 @@
       <c r="A358" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B358" s="7">
-        <v>314</v>
+      <c r="B358" s="4">
+        <v>975</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>3</v>
@@ -4550,8 +4461,8 @@
       <c r="A359" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B359" s="7">
-        <v>829</v>
+      <c r="B359" s="4">
+        <v>903</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>3</v>
@@ -4561,8 +4472,8 @@
       <c r="A360" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B360" s="7">
-        <v>218</v>
+      <c r="B360" s="4">
+        <v>904</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>3</v>
@@ -4572,8 +4483,8 @@
       <c r="A361" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B361" s="7">
-        <v>970</v>
+      <c r="B361" s="4">
+        <v>909</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>3</v>
@@ -4583,19 +4494,19 @@
       <c r="A362" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B362" s="7">
-        <v>165</v>
+      <c r="B362" s="4">
+        <v>954</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B363" s="8">
-        <v>464</v>
+      <c r="B363" s="4">
+        <v>955</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>3</v>
@@ -4605,8 +4516,8 @@
       <c r="A364" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B364" s="6">
-        <v>595</v>
+      <c r="B364" s="4">
+        <v>964</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>3</v>
@@ -4616,8 +4527,8 @@
       <c r="A365" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B365" s="7">
-        <v>878</v>
+      <c r="B365" s="4">
+        <v>965</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>3</v>
@@ -4627,8 +4538,8 @@
       <c r="A366" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B366" s="7">
-        <v>833</v>
+      <c r="B366" s="4">
+        <v>966</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>3</v>
@@ -4638,8 +4549,8 @@
       <c r="A367" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B367" s="7">
-        <v>676</v>
+      <c r="B367" s="4">
+        <v>967</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>3</v>
@@ -4649,8 +4560,8 @@
       <c r="A368" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B368" s="7">
-        <v>838</v>
+      <c r="B368" s="4">
+        <v>969</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>3</v>
@@ -4660,8 +4571,8 @@
       <c r="A369" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B369" s="7">
-        <v>126</v>
+      <c r="B369" s="4">
+        <v>970</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>3</v>
@@ -4671,8 +4582,8 @@
       <c r="A370" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B370" s="7">
-        <v>862</v>
+      <c r="B370" s="4">
+        <v>939</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>3</v>
@@ -4682,8 +4593,8 @@
       <c r="A371" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B371" s="7">
-        <v>776</v>
+      <c r="B371" s="4">
+        <v>943</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>3</v>
@@ -4693,8 +4604,8 @@
       <c r="A372" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B372" s="7">
-        <v>136</v>
+      <c r="B372" s="4">
+        <v>946</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>3</v>
@@ -4704,8 +4615,8 @@
       <c r="A373" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B373" s="7">
-        <v>61</v>
+      <c r="B373" s="4">
+        <v>952</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>3</v>
@@ -4715,8 +4626,8 @@
       <c r="A374" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B374" s="7">
-        <v>288</v>
+      <c r="B374" s="4">
+        <v>953</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>3</v>
@@ -4726,8 +4637,8 @@
       <c r="A375" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B375" s="7">
-        <v>616</v>
+      <c r="B375" s="4">
+        <v>956</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>3</v>
@@ -4737,8 +4648,8 @@
       <c r="A376" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B376" s="7">
-        <v>207</v>
+      <c r="B376" s="4">
+        <v>962</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>3</v>
@@ -4748,8 +4659,8 @@
       <c r="A377" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B377" s="7">
-        <v>284</v>
+      <c r="B377" s="4">
+        <v>972</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>3</v>
@@ -4759,8 +4670,8 @@
       <c r="A378" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B378" s="7">
-        <v>371</v>
+      <c r="B378" s="4">
+        <v>913</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>3</v>
@@ -4770,8 +4681,8 @@
       <c r="A379" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B379" s="7">
-        <v>285</v>
+      <c r="B379" s="4">
+        <v>911</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>3</v>
@@ -4781,8 +4692,8 @@
       <c r="A380" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B380" s="7">
-        <v>376</v>
+      <c r="B380" s="4">
+        <v>919</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>3</v>
@@ -4792,8 +4703,8 @@
       <c r="A381" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B381" s="7">
-        <v>744</v>
+      <c r="B381" s="4">
+        <v>918</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>3</v>
@@ -4803,8 +4714,8 @@
       <c r="A382" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B382" s="7">
-        <v>686</v>
+      <c r="B382" s="4">
+        <v>917</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>3</v>
@@ -4814,8 +4725,8 @@
       <c r="A383" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B383" s="7">
-        <v>46</v>
+      <c r="B383" s="4">
+        <v>937</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>3</v>
@@ -4825,8 +4736,8 @@
       <c r="A384" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B384" s="7">
-        <v>619</v>
+      <c r="B384" s="4">
+        <v>930</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>3</v>
@@ -4836,8 +4747,8 @@
       <c r="A385" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B385" s="7">
-        <v>919</v>
+      <c r="B385" s="4">
+        <v>925</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>3</v>
@@ -4847,8 +4758,8 @@
       <c r="A386" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B386" s="7">
-        <v>531</v>
+      <c r="B386" s="4">
+        <v>924</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>3</v>
@@ -4858,577 +4769,1255 @@
       <c r="A387" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B387" s="7">
-        <v>580</v>
+      <c r="B387" s="5">
+        <v>923</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388"/>
-      <c r="B388"/>
-      <c r="C388"/>
+      <c r="A388" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B388" s="4">
+        <v>28</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389"/>
-      <c r="B389"/>
-      <c r="C389"/>
+      <c r="A389" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B389" s="4">
+        <v>29</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390"/>
-      <c r="B390"/>
-      <c r="C390"/>
+      <c r="A390" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B390" s="4">
+        <v>30</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391"/>
-      <c r="B391"/>
-      <c r="C391"/>
+      <c r="A391" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B391" s="4">
+        <v>31</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392"/>
-      <c r="B392"/>
-      <c r="C392"/>
+      <c r="A392" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B392" s="4">
+        <v>32</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393"/>
-      <c r="B393"/>
-      <c r="C393"/>
+      <c r="A393" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B393" s="4">
+        <v>35</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394"/>
-      <c r="B394"/>
-      <c r="C394"/>
+      <c r="A394" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B394" s="4">
+        <v>36</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395"/>
-      <c r="B395"/>
-      <c r="C395"/>
+      <c r="A395" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B395" s="4">
+        <v>37</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396"/>
-      <c r="B396"/>
-      <c r="C396"/>
+      <c r="A396" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B396" s="4">
+        <v>38</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397"/>
-      <c r="B397"/>
-      <c r="C397"/>
+      <c r="A397" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B397" s="4">
+        <v>40</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398"/>
-      <c r="B398"/>
-      <c r="C398"/>
+      <c r="A398" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B398" s="4">
+        <v>41</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399"/>
-      <c r="B399"/>
-      <c r="C399"/>
+      <c r="A399" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B399" s="4">
+        <v>42</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400"/>
-      <c r="B400"/>
-      <c r="C400"/>
+      <c r="A400" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B400" s="4">
+        <v>43</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401"/>
-      <c r="B401"/>
-      <c r="C401"/>
+      <c r="A401" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B401" s="4">
+        <v>44</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402"/>
-      <c r="B402"/>
-      <c r="C402"/>
+      <c r="A402" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B402" s="4">
+        <v>53</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403"/>
-      <c r="B403"/>
-      <c r="C403"/>
+      <c r="A403" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B403" s="4">
+        <v>54</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404"/>
-      <c r="B404"/>
-      <c r="C404"/>
+      <c r="A404" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B404" s="4">
+        <v>55</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405"/>
-      <c r="B405"/>
-      <c r="C405"/>
+      <c r="A405" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B405" s="4">
+        <v>62</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406"/>
-      <c r="B406"/>
-      <c r="C406"/>
+      <c r="A406" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B406" s="4">
+        <v>63</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407"/>
-      <c r="B407"/>
-      <c r="C407"/>
+      <c r="A407" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B407" s="4">
+        <v>64</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408"/>
-      <c r="B408"/>
-      <c r="C408"/>
+      <c r="A408" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B408" s="4">
+        <v>65</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409"/>
-      <c r="B409"/>
-      <c r="C409"/>
+      <c r="A409" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B409" s="4">
+        <v>66</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410"/>
-      <c r="B410"/>
-      <c r="C410"/>
+      <c r="A410" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B410" s="4">
+        <v>67</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411"/>
-      <c r="B411"/>
-      <c r="C411"/>
+      <c r="A411" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B411" s="4">
+        <v>69</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412"/>
-      <c r="B412"/>
-      <c r="C412"/>
+      <c r="A412" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B412" s="4">
+        <v>70</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413"/>
-      <c r="B413"/>
-      <c r="C413"/>
+      <c r="A413" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B413" s="4">
+        <v>71</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414"/>
-      <c r="B414"/>
-      <c r="C414"/>
+      <c r="A414" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B414" s="4">
+        <v>72</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415"/>
-      <c r="B415"/>
-      <c r="C415"/>
+      <c r="A415" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B415" s="4">
+        <v>73</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416"/>
-      <c r="B416"/>
-      <c r="C416"/>
+      <c r="A416" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B416" s="4">
+        <v>76</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417"/>
-      <c r="B417"/>
-      <c r="C417"/>
+      <c r="A417" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B417" s="4">
+        <v>77</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418"/>
-      <c r="B418"/>
-      <c r="C418"/>
+      <c r="A418" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B418" s="4">
+        <v>78</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419"/>
-      <c r="B419"/>
-      <c r="C419"/>
+      <c r="A419" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B419" s="4">
+        <v>93</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420"/>
-      <c r="B420"/>
-      <c r="C420"/>
+      <c r="A420" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B420" s="4">
+        <v>94</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421"/>
-      <c r="B421"/>
-      <c r="C421"/>
+      <c r="A421" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B421" s="4">
+        <v>95</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422"/>
-      <c r="B422"/>
-      <c r="C422"/>
+      <c r="A422" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B422" s="4">
+        <v>96</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423"/>
-      <c r="B423"/>
-      <c r="C423"/>
+      <c r="A423" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B423" s="4">
+        <v>99</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424"/>
-      <c r="B424"/>
-      <c r="C424"/>
+      <c r="A424" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B424" s="4">
+        <v>100</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425"/>
-      <c r="B425"/>
-      <c r="C425"/>
+      <c r="A425" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B425" s="4">
+        <v>101</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426"/>
-      <c r="B426"/>
-      <c r="C426"/>
+      <c r="A426" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B426" s="4">
+        <v>125</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427"/>
-      <c r="B427"/>
-      <c r="C427"/>
+      <c r="A427" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B427" s="4">
+        <v>127</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428"/>
-      <c r="B428"/>
-      <c r="C428"/>
+      <c r="A428" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B428" s="4">
+        <v>128</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429"/>
-      <c r="B429"/>
-      <c r="C429"/>
+      <c r="A429" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B429" s="4">
+        <v>129</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430"/>
-      <c r="B430"/>
-      <c r="C430"/>
+      <c r="A430" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B430" s="4">
+        <v>130</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431"/>
-      <c r="B431"/>
-      <c r="C431"/>
+      <c r="A431" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B431" s="4">
+        <v>149</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432"/>
-      <c r="B432"/>
-      <c r="C432"/>
+      <c r="A432" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B432" s="4">
+        <v>150</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433"/>
-      <c r="B433"/>
-      <c r="C433"/>
+      <c r="A433" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B433" s="4">
+        <v>151</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434"/>
-      <c r="B434"/>
-      <c r="C434"/>
+      <c r="A434" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B434" s="4">
+        <v>152</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435"/>
-      <c r="B435"/>
-      <c r="C435"/>
+      <c r="A435" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B435" s="4">
+        <v>162</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436"/>
-      <c r="B436"/>
-      <c r="C436"/>
+      <c r="A436" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B436" s="4">
+        <v>163</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437"/>
-      <c r="B437"/>
-      <c r="C437"/>
+      <c r="A437" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B437" s="4">
+        <v>168</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438"/>
-      <c r="B438"/>
-      <c r="C438"/>
+      <c r="A438" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B438" s="4">
+        <v>169</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439"/>
-      <c r="B439"/>
-      <c r="C439"/>
+      <c r="A439" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B439" s="4">
+        <v>170</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440"/>
-      <c r="B440"/>
-      <c r="C440"/>
+      <c r="A440" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B440" s="4">
+        <v>174</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441"/>
-      <c r="B441"/>
-      <c r="C441"/>
+      <c r="A441" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B441" s="4">
+        <v>175</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442"/>
-      <c r="B442"/>
-      <c r="C442"/>
+      <c r="A442" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B442" s="4">
+        <v>197</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443"/>
-      <c r="B443"/>
-      <c r="C443"/>
+      <c r="A443" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B443" s="4">
+        <v>198</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444"/>
-      <c r="B444"/>
-      <c r="C444"/>
+      <c r="A444" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B444" s="4">
+        <v>199</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445"/>
-      <c r="B445"/>
-      <c r="C445"/>
+      <c r="A445" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B445" s="4">
+        <v>200</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446"/>
-      <c r="B446"/>
-      <c r="C446"/>
+      <c r="A446" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B446" s="4">
+        <v>201</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447"/>
-      <c r="B447"/>
-      <c r="C447"/>
+      <c r="A447" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B447" s="4">
+        <v>202</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448"/>
-      <c r="B448"/>
-      <c r="C448"/>
+      <c r="A448" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B448" s="4">
+        <v>203</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449"/>
-      <c r="B449"/>
-      <c r="C449"/>
+      <c r="A449" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B449" s="4">
+        <v>235</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450"/>
-      <c r="B450"/>
-      <c r="C450"/>
+      <c r="A450" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B450" s="4">
+        <v>238</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451"/>
-      <c r="B451"/>
-      <c r="C451"/>
+      <c r="A451" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B451" s="4">
+        <v>252</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452"/>
-      <c r="B452"/>
-      <c r="C452"/>
+      <c r="A452" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B452" s="4">
+        <v>253</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453"/>
-      <c r="B453"/>
-      <c r="C453"/>
+      <c r="A453" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B453" s="4">
+        <v>255</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454"/>
-      <c r="B454"/>
-      <c r="C454"/>
+      <c r="A454" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B454" s="4">
+        <v>256</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455"/>
-      <c r="B455"/>
-      <c r="C455"/>
+      <c r="A455" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B455" s="4">
+        <v>258</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456"/>
-      <c r="B456"/>
-      <c r="C456"/>
+      <c r="A456" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B456" s="4">
+        <v>259</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457"/>
-      <c r="B457"/>
-      <c r="C457"/>
+      <c r="A457" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B457" s="4">
+        <v>260</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458"/>
-      <c r="B458"/>
-      <c r="C458"/>
+      <c r="A458" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B458" s="4">
+        <v>265</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459"/>
-      <c r="B459"/>
-      <c r="C459"/>
+      <c r="A459" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B459" s="4">
+        <v>266</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460"/>
-      <c r="B460"/>
-      <c r="C460"/>
+      <c r="A460" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B460" s="4">
+        <v>268</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461"/>
-      <c r="B461"/>
-      <c r="C461"/>
+      <c r="A461" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B461" s="4">
+        <v>290</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462"/>
-      <c r="B462"/>
-      <c r="C462"/>
+      <c r="A462" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B462" s="4">
+        <v>291</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463"/>
-      <c r="B463"/>
-      <c r="C463"/>
+      <c r="A463" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B463" s="4">
+        <v>296</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464"/>
-      <c r="B464"/>
-      <c r="C464"/>
+      <c r="A464" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B464" s="4">
+        <v>297</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A465"/>
-      <c r="B465"/>
-      <c r="C465"/>
+      <c r="A465" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B465" s="4">
+        <v>298</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A466"/>
-      <c r="B466"/>
-      <c r="C466"/>
+      <c r="A466" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B466" s="4">
+        <v>315</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467"/>
-      <c r="B467"/>
-      <c r="C467"/>
+      <c r="A467" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B467" s="4">
+        <v>316</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468"/>
-      <c r="B468"/>
-      <c r="C468"/>
+      <c r="A468" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B468" s="4">
+        <v>317</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469"/>
-      <c r="B469"/>
-      <c r="C469"/>
+      <c r="A469" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B469" s="4">
+        <v>318</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470"/>
-      <c r="B470"/>
-      <c r="C470"/>
+      <c r="A470" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B470" s="4">
+        <v>325</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471"/>
-      <c r="B471"/>
-      <c r="C471"/>
+      <c r="A471" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B471" s="4">
+        <v>326</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472"/>
-      <c r="B472"/>
-      <c r="C472"/>
+      <c r="A472" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B472" s="4">
+        <v>341</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473"/>
-      <c r="B473"/>
-      <c r="C473"/>
+      <c r="A473" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B473" s="4">
+        <v>342</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474"/>
-      <c r="B474"/>
-      <c r="C474"/>
+      <c r="A474" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B474" s="4">
+        <v>343</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475"/>
-      <c r="B475"/>
-      <c r="C475"/>
+      <c r="A475" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B475" s="4">
+        <v>345</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A476"/>
-      <c r="B476"/>
-      <c r="C476"/>
+      <c r="A476" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B476" s="4">
+        <v>346</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A477"/>
-      <c r="B477"/>
-      <c r="C477"/>
+      <c r="A477" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B477" s="4">
+        <v>931</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A478"/>
-      <c r="B478"/>
-      <c r="C478"/>
+      <c r="A478" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B478" s="4">
+        <v>932</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479"/>
-      <c r="B479"/>
-      <c r="C479"/>
+      <c r="A479" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B479" s="4">
+        <v>933</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A480"/>
-      <c r="B480"/>
-      <c r="C480"/>
+      <c r="A480" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B480" s="4">
+        <v>935</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481"/>
-      <c r="B481"/>
-      <c r="C481"/>
+      <c r="A481" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B481" s="4">
+        <v>936</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A482"/>
-      <c r="B482"/>
-      <c r="C482"/>
+      <c r="A482" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B482" s="4">
+        <v>947</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A483"/>
-      <c r="B483"/>
-      <c r="C483"/>
+      <c r="A483" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B483" s="4">
+        <v>948</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484"/>
-      <c r="B484"/>
-      <c r="C484"/>
+      <c r="A484" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B484" s="4">
+        <v>949</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485"/>
-      <c r="B485"/>
-      <c r="C485"/>
+      <c r="A485" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B485" s="4">
+        <v>957</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486"/>
-      <c r="B486"/>
-      <c r="C486"/>
+      <c r="A486" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B486" s="4">
+        <v>958</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A487"/>
-      <c r="B487"/>
-      <c r="C487"/>
+      <c r="A487" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B487" s="4">
+        <v>959</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A488"/>
-      <c r="B488"/>
-      <c r="C488"/>
+      <c r="A488" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B488" s="4">
+        <v>960</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A489"/>
-      <c r="B489"/>
-      <c r="C489"/>
+      <c r="A489" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B489" s="4">
+        <v>961</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490"/>
-      <c r="B490"/>
-      <c r="C490"/>
+      <c r="A490" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B490" s="4">
+        <v>968</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A491"/>
-      <c r="B491"/>
-      <c r="C491"/>
+      <c r="A491" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B491" s="4">
+        <v>973</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492"/>
-      <c r="B492"/>
-      <c r="C492"/>
+      <c r="A492" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B492" s="4">
+        <v>976</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A493"/>
-      <c r="B493"/>
-      <c r="C493"/>
+      <c r="A493" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B493" s="4">
+        <v>978</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A494"/>
-      <c r="B494"/>
-      <c r="C494"/>
+      <c r="A494" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B494" s="4">
+        <v>979</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495"/>
-      <c r="B495"/>
-      <c r="C495"/>
+      <c r="A495" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B495" s="4">
+        <v>980</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496"/>
-      <c r="B496"/>
-      <c r="C496"/>
+      <c r="A496" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B496" s="4">
+        <v>981</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497"/>
-      <c r="B497"/>
-      <c r="C497"/>
+      <c r="A497" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B497" s="4">
+        <v>982</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A498"/>
-      <c r="B498"/>
-      <c r="C498"/>
+      <c r="A498" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B498" s="4">
+        <v>985</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A499"/>
-      <c r="B499"/>
-      <c r="C499"/>
+      <c r="A499" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B499" s="4">
+        <v>986</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A500"/>
-      <c r="B500"/>
-      <c r="C500"/>
+      <c r="A500" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B500" s="4">
+        <v>987</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501"/>
@@ -5436,7 +6025,6 @@
       <c r="C501"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C387" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
